--- a/Sales Analysis.xlsx
+++ b/Sales Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT1\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05870EA4-B378-4B66-87A6-431B08195ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68529CD2-A0CD-465A-B00C-E28FD4AE6028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,28 @@
     <sheet name="Sales by country(pivot tables)" sheetId="7" r:id="rId5"/>
     <sheet name="Dollar per unit(pivot tables)" sheetId="9" r:id="rId6"/>
     <sheet name="Anomaly Detection" sheetId="10" r:id="rId7"/>
+    <sheet name="Best Sales person by Country" sheetId="11" r:id="rId8"/>
+    <sheet name="Profit By Products" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$C$11:$G$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sales by country'!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Anomaly Detection'!$F$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Anomaly Detection'!$D$6:$D$305</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Anomaly Detection'!$F$6:$F$305</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Anomaly Detection'!$D$6:$D$305</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Anomaly Detection'!$F$5</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Anomaly Detection'!$F$6:$F$305</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Anomaly Detection'!$D$6:$D$305</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Anomaly Detection'!$F$6:$F$305</definedName>
     <definedName name="_xlcn.WorksheetConnection_beginnerDAcourseblank.xlsxTable21" hidden="1">Table2[]</definedName>
     <definedName name="Slicer_Sales_Person">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="22" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="73">
   <si>
     <t>Product</t>
   </si>
@@ -299,6 +299,12 @@
   <si>
     <t>Sales per unit</t>
   </si>
+  <si>
+    <t>Best Performing Sales Person</t>
+  </si>
+  <si>
+    <t>Worst Performing Sales Person</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -427,6 +433,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2634,7 +2650,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2672,7 +2688,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{61C0AC96-7888-4429-88C6-DA1BC0AFCC8B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Amount</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2702,10 +2718,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7055,7 +7071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{002C8F0C-F78B-446E-9A0F-6AA9616465D1}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{002C8F0C-F78B-446E-9A0F-6AA9616465D1}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -7167,7 +7183,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57EBC6ED-301E-4620-B8E2-14D383A8761B}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57EBC6ED-301E-4620-B8E2-14D383A8761B}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:C27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -7314,6 +7330,560 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20BAC633-877D-4014-9963-3FA293B6D252}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="67">
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF4F8649-D5E2-495D-A2FB-3F30044D99F3}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="67">
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -20425,7 +20995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA01C8-06FA-4CDE-97D3-237D9687D695}">
   <dimension ref="C5:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -25562,4 +26132,1004 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8ECA7-D5D6-49C9-9E9C-0D3FC293C7C8}">
+  <dimension ref="B2:J70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="20">
+        <v>252469</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="20">
+        <v>252469</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20">
+        <v>41559</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="20">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="20">
+        <v>39424</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="20">
+        <v>39424</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20">
+        <v>35847</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="20">
+        <v>35847</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20">
+        <v>33670</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="20">
+        <v>33670</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20">
+        <v>31661</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="20">
+        <v>31661</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20">
+        <v>24647</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="20">
+        <v>24647</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20">
+        <v>16527</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="20">
+        <v>16527</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="20">
+        <v>15855</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="20">
+        <v>15855</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>7763</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>7763</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="20">
+        <v>5516</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="20">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="20">
+        <v>237944</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="20">
+        <v>237944</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20">
+        <v>39620</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="20">
+        <v>39620</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="20">
+        <v>39242</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="20">
+        <v>39242</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="20">
+        <v>27377</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="20">
+        <v>27377</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="20">
+        <v>25669</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="20">
+        <v>25669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>23709</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="20">
+        <v>23709</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="20">
+        <v>23016</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="20">
+        <v>23016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="20">
+        <v>21931</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="20">
+        <v>21931</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="20">
+        <v>18564</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="20">
+        <v>18564</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="20">
+        <v>13797</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="20">
+        <v>13797</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="20">
+        <v>5019</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="20">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="20">
+        <v>218813</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="20">
+        <v>218813</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="20">
+        <v>43568</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="20">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="20">
+        <v>26985</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="20">
+        <v>26985</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>25655</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="20">
+        <v>25655</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="20">
+        <v>24451</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="20">
+        <v>24451</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="20">
+        <v>21434</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="20">
+        <v>21434</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="20">
+        <v>20125</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="20">
+        <v>20125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="20">
+        <v>17283</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="20">
+        <v>17283</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="20">
+        <v>16821</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="20">
+        <v>16821</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="20">
+        <v>14504</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="20">
+        <v>14504</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="20">
+        <v>7987</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="20">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="20">
+        <v>189434</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="20">
+        <v>189434</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="20">
+        <v>38325</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="20">
+        <v>38325</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="20">
+        <v>28546</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="20">
+        <v>28546</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="20">
+        <v>28273</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="20">
+        <v>28273</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="20">
+        <v>25151</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="20">
+        <v>25151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="20">
+        <v>16492</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="20">
+        <v>16492</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="20">
+        <v>15785</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="20">
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="20">
+        <v>12383</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="20">
+        <v>12383</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="20">
+        <v>11319</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="20">
+        <v>11319</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="20">
+        <v>11018</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="20">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="20">
+        <v>2142</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="20">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="20">
+        <v>173530</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="20">
+        <v>173530</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="20">
+        <v>45752</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="20">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="20">
+        <v>27132</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="20">
+        <v>27132</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="20">
+        <v>21063</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="20">
+        <v>21063</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="20">
+        <v>17808</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="20">
+        <v>17808</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="20">
+        <v>16548</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="20">
+        <v>16548</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="20">
+        <v>15827</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="20">
+        <v>15827</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20">
+        <v>10269</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="20">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="20">
+        <v>9751</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="20">
+        <v>9751</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="20">
+        <v>5404</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="20">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="20">
+        <v>3976</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="20">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="20">
+        <v>168679</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="20">
+        <v>168679</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="20">
+        <v>25221</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="20">
+        <v>25221</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="20">
+        <v>24983</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="20">
+        <v>24983</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="20">
+        <v>20097</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="20">
+        <v>20097</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="20">
+        <v>18928</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="20">
+        <v>18928</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="20">
+        <v>18865</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="20">
+        <v>18865</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="20">
+        <v>15820</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="20">
+        <v>15820</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="20">
+        <v>15141</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="20">
+        <v>15141</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="20">
+        <v>14714</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="20">
+        <v>14714</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="20">
+        <v>8841</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="20">
+        <v>8841</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="20">
+        <v>6069</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="20">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1240869</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J70" s="20">
+        <v>1240869</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F5E0B-2E66-4916-8E57-63D4C897DA68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sales Analysis.xlsx
+++ b/Sales Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT1\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68529CD2-A0CD-465A-B00C-E28FD4AE6028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF48410-BB91-4C3D-8D49-D00648B36A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Dollar per unit(pivot tables)" sheetId="9" r:id="rId6"/>
     <sheet name="Anomaly Detection" sheetId="10" r:id="rId7"/>
     <sheet name="Best Sales person by Country" sheetId="11" r:id="rId8"/>
-    <sheet name="Profit By Products" sheetId="12" r:id="rId9"/>
+    <sheet name="Dynamic country sales report" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$C$11:$G$11</definedName>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="83">
   <si>
     <t>Product</t>
   </si>
@@ -305,6 +305,36 @@
   <si>
     <t>Worst Performing Sales Person</t>
   </si>
+  <si>
+    <t>cost per unit</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Pick a Country</t>
+  </si>
+  <si>
+    <t>Quick Summary</t>
+  </si>
+  <si>
+    <t>Number of Transactions</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cost Per Unit</t>
+  </si>
+  <si>
+    <t>By Sales Person</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +410,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -400,12 +442,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -436,19 +489,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -506,9 +573,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -4834,54 +4898,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MARTIN KILOMBE" refreshedDate="44978.777783912039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300" xr:uid="{7F820D49-7911-40DD-BE25-FD4039B096D8}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table2"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Sales Person" numFmtId="0">
-      <sharedItems count="10">
-        <s v="Ram Mahesh"/>
-        <s v="Brien Boise"/>
-        <s v="Husein Augar"/>
-        <s v="Carla Molina"/>
-        <s v="Curtice Advani"/>
-        <s v="Ches Bonnell"/>
-        <s v="Gigi Bohling"/>
-        <s v="Barr Faughny"/>
-        <s v="Gunar Cockshoot"/>
-        <s v="Oby Sorrel"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Geography" numFmtId="0">
-      <sharedItems count="6">
-        <s v="New Zealand"/>
-        <s v="USA"/>
-        <s v="Canada"/>
-        <s v="UK"/>
-        <s v="Australia"/>
-        <s v="India"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Product" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="16184"/>
-    </cacheField>
-    <cacheField name="Units" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="525"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1455311048"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="MARTIN KILOMBE" refreshedDate="44979.510880439811" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{492680BC-1B97-4A12-A7A3-32CF3F91515B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
@@ -4965,6 +4981,60 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MARTIN KILOMBE" refreshedDate="44979.695795254629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300" xr:uid="{7F820D49-7911-40DD-BE25-FD4039B096D8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Sales Person" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Ram Mahesh"/>
+        <s v="Brien Boise"/>
+        <s v="Husein Augar"/>
+        <s v="Carla Molina"/>
+        <s v="Curtice Advani"/>
+        <s v="Ches Bonnell"/>
+        <s v="Gigi Bohling"/>
+        <s v="Barr Faughny"/>
+        <s v="Gunar Cockshoot"/>
+        <s v="Oby Sorrel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Geography" numFmtId="0">
+      <sharedItems count="6">
+        <s v="New Zealand"/>
+        <s v="USA"/>
+        <s v="Canada"/>
+        <s v="UK"/>
+        <s v="Australia"/>
+        <s v="India"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="16184"/>
+    </cacheField>
+    <cacheField name="Units" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="525"/>
+    </cacheField>
+    <cacheField name="cost per unit" numFmtId="2">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="2037"/>
+    </cacheField>
+    <cacheField name="cost" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1455311048"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="300">
   <r>
@@ -4973,6 +5043,8 @@
     <s v="70% Dark Bites"/>
     <n v="1624"/>
     <n v="114"/>
+    <n v="14.245614035087719"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -4980,6 +5052,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="6706"/>
     <n v="459"/>
+    <n v="14.610021786492375"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -4987,6 +5061,8 @@
     <s v="Almond Choco"/>
     <n v="959"/>
     <n v="147"/>
+    <n v="6.5238095238095237"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -4994,6 +5070,8 @@
     <s v="Drinking Coco"/>
     <n v="9632"/>
     <n v="288"/>
+    <n v="33.444444444444443"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5001,6 +5079,8 @@
     <s v="White Choc"/>
     <n v="2100"/>
     <n v="414"/>
+    <n v="5.0724637681159424"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5008,6 +5088,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="8869"/>
     <n v="432"/>
+    <n v="20.530092592592592"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5015,6 +5097,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="2681"/>
     <n v="54"/>
+    <n v="49.648148148148145"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5022,6 +5106,8 @@
     <s v="After Nines"/>
     <n v="5012"/>
     <n v="210"/>
+    <n v="23.866666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5029,6 +5115,8 @@
     <s v="50% Dark Bites"/>
     <n v="1281"/>
     <n v="75"/>
+    <n v="17.079999999999998"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5036,6 +5124,8 @@
     <s v="50% Dark Bites"/>
     <n v="4991"/>
     <n v="12"/>
+    <n v="415.91666666666669"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5043,6 +5133,8 @@
     <s v="White Choc"/>
     <n v="1785"/>
     <n v="462"/>
+    <n v="3.8636363636363638"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5050,6 +5142,8 @@
     <s v="Eclairs"/>
     <n v="3983"/>
     <n v="144"/>
+    <n v="27.659722222222221"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5057,6 +5151,8 @@
     <s v="Mint Chip Choco"/>
     <n v="2646"/>
     <n v="120"/>
+    <n v="22.05"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5064,6 +5160,8 @@
     <s v="Milk Bars"/>
     <n v="252"/>
     <n v="54"/>
+    <n v="4.666666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5071,6 +5169,8 @@
     <s v="White Choc"/>
     <n v="2464"/>
     <n v="234"/>
+    <n v="10.52991452991453"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5078,6 +5178,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="2114"/>
     <n v="66"/>
+    <n v="32.030303030303031"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5085,6 +5187,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="7693"/>
     <n v="87"/>
+    <n v="88.425287356321846"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5092,6 +5196,8 @@
     <s v="Orange Choco"/>
     <n v="15610"/>
     <n v="339"/>
+    <n v="46.047197640117993"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5099,6 +5205,8 @@
     <s v="After Nines"/>
     <n v="336"/>
     <n v="144"/>
+    <n v="2.3333333333333335"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5106,6 +5214,8 @@
     <s v="Orange Choco"/>
     <n v="9443"/>
     <n v="162"/>
+    <n v="58.290123456790127"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5113,6 +5223,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="8155"/>
     <n v="90"/>
+    <n v="90.611111111111114"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5120,6 +5232,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="1701"/>
     <n v="234"/>
+    <n v="7.2692307692307692"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5127,6 +5241,8 @@
     <s v="After Nines"/>
     <n v="2205"/>
     <n v="141"/>
+    <n v="15.638297872340425"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5134,6 +5250,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="1771"/>
     <n v="204"/>
+    <n v="8.6813725490196081"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5141,6 +5259,8 @@
     <s v="Raspberry Choco"/>
     <n v="2114"/>
     <n v="186"/>
+    <n v="11.365591397849462"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5148,6 +5268,8 @@
     <s v="Milk Bars"/>
     <n v="10311"/>
     <n v="231"/>
+    <n v="44.636363636363633"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5155,6 +5277,8 @@
     <s v="Mint Chip Choco"/>
     <n v="21"/>
     <n v="168"/>
+    <n v="0.125"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5162,6 +5286,8 @@
     <s v="Orange Choco"/>
     <n v="1974"/>
     <n v="195"/>
+    <n v="10.123076923076923"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5169,6 +5295,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="6314"/>
     <n v="15"/>
+    <n v="420.93333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5176,6 +5304,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="4683"/>
     <n v="30"/>
+    <n v="156.1"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5183,6 +5313,8 @@
     <s v="85% Dark Bars"/>
     <n v="6398"/>
     <n v="102"/>
+    <n v="62.725490196078432"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5190,6 +5322,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="553"/>
     <n v="15"/>
+    <n v="36.866666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5197,6 +5331,8 @@
     <s v="70% Dark Bites"/>
     <n v="7021"/>
     <n v="183"/>
+    <n v="38.366120218579233"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5204,6 +5340,8 @@
     <s v="After Nines"/>
     <n v="5817"/>
     <n v="12"/>
+    <n v="484.75"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5211,6 +5349,8 @@
     <s v="50% Dark Bites"/>
     <n v="3976"/>
     <n v="72"/>
+    <n v="55.222222222222221"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5218,6 +5358,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="1134"/>
     <n v="282"/>
+    <n v="4.0212765957446805"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5225,6 +5367,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="6027"/>
     <n v="144"/>
+    <n v="41.854166666666664"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5232,6 +5376,8 @@
     <s v="Mint Chip Choco"/>
     <n v="1904"/>
     <n v="405"/>
+    <n v="4.7012345679012348"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5239,6 +5385,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="3262"/>
     <n v="75"/>
+    <n v="43.493333333333332"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5246,6 +5394,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="2289"/>
     <n v="135"/>
+    <n v="16.955555555555556"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5253,6 +5403,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="6986"/>
     <n v="21"/>
+    <n v="332.66666666666669"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5260,6 +5412,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="4417"/>
     <n v="153"/>
+    <n v="28.869281045751634"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5267,6 +5421,8 @@
     <s v="Raspberry Choco"/>
     <n v="1442"/>
     <n v="15"/>
+    <n v="96.13333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5274,6 +5430,8 @@
     <s v="50% Dark Bites"/>
     <n v="2415"/>
     <n v="255"/>
+    <n v="9.4705882352941178"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5281,6 +5439,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="238"/>
     <n v="18"/>
+    <n v="13.222222222222221"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5288,6 +5448,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="4949"/>
     <n v="189"/>
+    <n v="26.185185185185187"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5295,6 +5457,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="5075"/>
     <n v="21"/>
+    <n v="241.66666666666666"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5302,6 +5466,8 @@
     <s v="Mint Chip Choco"/>
     <n v="9198"/>
     <n v="36"/>
+    <n v="255.5"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5309,6 +5475,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="3339"/>
     <n v="75"/>
+    <n v="44.52"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5316,6 +5484,8 @@
     <s v="Eclairs"/>
     <n v="5019"/>
     <n v="156"/>
+    <n v="32.17307692307692"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5323,6 +5493,8 @@
     <s v="Mint Chip Choco"/>
     <n v="16184"/>
     <n v="39"/>
+    <n v="414.97435897435895"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5330,6 +5502,8 @@
     <s v="Spicy Special Slims"/>
     <n v="497"/>
     <n v="63"/>
+    <n v="7.8888888888888893"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5337,6 +5511,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="8211"/>
     <n v="75"/>
+    <n v="109.48"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5344,6 +5520,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="6580"/>
     <n v="183"/>
+    <n v="35.956284153005463"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5351,6 +5529,8 @@
     <s v="Milk Bars"/>
     <n v="4760"/>
     <n v="69"/>
+    <n v="68.985507246376812"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5358,6 +5538,8 @@
     <s v="White Choc"/>
     <n v="5439"/>
     <n v="30"/>
+    <n v="181.3"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5365,6 +5547,8 @@
     <s v="Eclairs"/>
     <n v="1463"/>
     <n v="39"/>
+    <n v="37.512820512820511"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5372,6 +5556,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="7777"/>
     <n v="504"/>
+    <n v="15.430555555555555"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5379,6 +5565,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="1085"/>
     <n v="273"/>
+    <n v="3.9743589743589745"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5386,6 +5574,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="182"/>
     <n v="48"/>
+    <n v="3.7916666666666665"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5393,6 +5583,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="4242"/>
     <n v="207"/>
+    <n v="20.492753623188406"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5400,6 +5592,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="6118"/>
     <n v="9"/>
+    <n v="679.77777777777783"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5407,6 +5601,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="2317"/>
     <n v="261"/>
+    <n v="8.8773946360153264"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5414,6 +5610,8 @@
     <s v="Mint Chip Choco"/>
     <n v="938"/>
     <n v="6"/>
+    <n v="156.33333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5421,6 +5619,8 @@
     <s v="Raspberry Choco"/>
     <n v="9709"/>
     <n v="30"/>
+    <n v="323.63333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5428,6 +5628,8 @@
     <s v="Orange Choco"/>
     <n v="2205"/>
     <n v="138"/>
+    <n v="15.978260869565217"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5435,6 +5637,8 @@
     <s v="Eclairs"/>
     <n v="4487"/>
     <n v="111"/>
+    <n v="40.423423423423422"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5442,6 +5646,8 @@
     <s v="Drinking Coco"/>
     <n v="2415"/>
     <n v="15"/>
+    <n v="161"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5449,6 +5655,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="4018"/>
     <n v="162"/>
+    <n v="24.802469135802468"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5456,6 +5664,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="861"/>
     <n v="195"/>
+    <n v="4.4153846153846157"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5463,6 +5673,8 @@
     <s v="50% Dark Bites"/>
     <n v="5586"/>
     <n v="525"/>
+    <n v="10.64"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5470,6 +5682,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="2226"/>
     <n v="48"/>
+    <n v="46.375"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5477,6 +5691,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="14329"/>
     <n v="150"/>
+    <n v="95.526666666666671"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5484,6 +5700,8 @@
     <s v="Orange Choco"/>
     <n v="8463"/>
     <n v="492"/>
+    <n v="17.201219512195124"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5491,6 +5709,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="2891"/>
     <n v="102"/>
+    <n v="28.343137254901961"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5498,6 +5718,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="3773"/>
     <n v="165"/>
+    <n v="22.866666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5505,6 +5727,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="854"/>
     <n v="309"/>
+    <n v="2.7637540453074432"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5512,6 +5736,8 @@
     <s v="Eclairs"/>
     <n v="4970"/>
     <n v="156"/>
+    <n v="31.858974358974358"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5519,6 +5745,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="98"/>
     <n v="159"/>
+    <n v="0.61635220125786161"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5526,6 +5754,8 @@
     <s v="Raspberry Choco"/>
     <n v="13391"/>
     <n v="201"/>
+    <n v="66.621890547263675"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5533,6 +5763,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="8890"/>
     <n v="210"/>
+    <n v="42.333333333333336"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5540,6 +5772,8 @@
     <s v="Milk Bars"/>
     <n v="56"/>
     <n v="51"/>
+    <n v="1.0980392156862746"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5547,6 +5781,8 @@
     <s v="White Choc"/>
     <n v="3339"/>
     <n v="39"/>
+    <n v="85.615384615384613"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5554,6 +5790,8 @@
     <s v="Drinking Coco"/>
     <n v="3808"/>
     <n v="279"/>
+    <n v="13.648745519713261"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5561,6 +5799,8 @@
     <s v="Milk Bars"/>
     <n v="63"/>
     <n v="123"/>
+    <n v="0.51219512195121952"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5568,6 +5808,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="7812"/>
     <n v="81"/>
+    <n v="96.444444444444443"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5575,6 +5817,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="7693"/>
     <n v="21"/>
+    <n v="366.33333333333331"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5582,6 +5826,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="973"/>
     <n v="162"/>
+    <n v="6.0061728395061724"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5589,6 +5835,8 @@
     <s v="Spicy Special Slims"/>
     <n v="567"/>
     <n v="228"/>
+    <n v="2.486842105263158"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5596,6 +5844,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="2471"/>
     <n v="342"/>
+    <n v="7.2251461988304095"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5603,6 +5853,8 @@
     <s v="Milk Bars"/>
     <n v="7189"/>
     <n v="54"/>
+    <n v="133.12962962962962"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5610,6 +5862,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="7455"/>
     <n v="216"/>
+    <n v="34.513888888888886"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5617,6 +5871,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="3108"/>
     <n v="54"/>
+    <n v="57.555555555555557"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5624,6 +5880,8 @@
     <s v="White Choc"/>
     <n v="469"/>
     <n v="75"/>
+    <n v="6.253333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5631,6 +5889,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="2737"/>
     <n v="93"/>
+    <n v="29.43010752688172"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5638,6 +5898,8 @@
     <s v="White Choc"/>
     <n v="4305"/>
     <n v="156"/>
+    <n v="27.596153846153847"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5645,6 +5907,8 @@
     <s v="Eclairs"/>
     <n v="2408"/>
     <n v="9"/>
+    <n v="267.55555555555554"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5652,6 +5916,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="1281"/>
     <n v="18"/>
+    <n v="71.166666666666671"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5659,6 +5925,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="12348"/>
     <n v="234"/>
+    <n v="52.769230769230766"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -5666,6 +5934,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="3689"/>
     <n v="312"/>
+    <n v="11.823717948717949"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5673,6 +5943,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="2870"/>
     <n v="300"/>
+    <n v="9.5666666666666664"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5680,6 +5952,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="798"/>
     <n v="519"/>
+    <n v="1.5375722543352601"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5687,6 +5961,8 @@
     <s v="Spicy Special Slims"/>
     <n v="2933"/>
     <n v="9"/>
+    <n v="325.88888888888891"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5694,6 +5970,8 @@
     <s v="Almond Choco"/>
     <n v="2744"/>
     <n v="9"/>
+    <n v="304.88888888888891"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5701,6 +5979,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="9772"/>
     <n v="90"/>
+    <n v="108.57777777777778"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5708,6 +5988,8 @@
     <s v="White Choc"/>
     <n v="1568"/>
     <n v="96"/>
+    <n v="16.333333333333332"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5715,6 +5997,8 @@
     <s v="Mint Chip Choco"/>
     <n v="11417"/>
     <n v="21"/>
+    <n v="543.66666666666663"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5722,6 +6006,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="6748"/>
     <n v="48"/>
+    <n v="140.58333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5729,6 +6015,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="1407"/>
     <n v="72"/>
+    <n v="19.541666666666668"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5736,6 +6024,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="2023"/>
     <n v="168"/>
+    <n v="12.041666666666666"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5743,6 +6033,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="5236"/>
     <n v="51"/>
+    <n v="102.66666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5750,6 +6042,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="1925"/>
     <n v="192"/>
+    <n v="10.026041666666666"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5757,6 +6051,8 @@
     <s v="50% Dark Bites"/>
     <n v="6608"/>
     <n v="225"/>
+    <n v="29.36888888888889"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5764,6 +6060,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="8008"/>
     <n v="456"/>
+    <n v="17.561403508771932"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5771,6 +6069,8 @@
     <s v="White Choc"/>
     <n v="1428"/>
     <n v="93"/>
+    <n v="15.35483870967742"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5778,6 +6078,8 @@
     <s v="Almond Choco"/>
     <n v="525"/>
     <n v="48"/>
+    <n v="10.9375"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5785,6 +6087,8 @@
     <s v="Drinking Coco"/>
     <n v="1505"/>
     <n v="102"/>
+    <n v="14.754901960784315"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5792,6 +6096,8 @@
     <s v="70% Dark Bites"/>
     <n v="6755"/>
     <n v="252"/>
+    <n v="26.805555555555557"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5799,6 +6105,8 @@
     <s v="Drinking Coco"/>
     <n v="11571"/>
     <n v="138"/>
+    <n v="83.847826086956516"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5806,6 +6114,8 @@
     <s v="White Choc"/>
     <n v="2541"/>
     <n v="90"/>
+    <n v="28.233333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5813,6 +6123,8 @@
     <s v="70% Dark Bites"/>
     <n v="1526"/>
     <n v="240"/>
+    <n v="6.3583333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -5820,6 +6132,8 @@
     <s v="Almond Choco"/>
     <n v="6125"/>
     <n v="102"/>
+    <n v="60.049019607843135"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5827,6 +6141,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="847"/>
     <n v="129"/>
+    <n v="6.5658914728682172"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5834,6 +6150,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="4753"/>
     <n v="300"/>
+    <n v="15.843333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5841,6 +6159,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="959"/>
     <n v="135"/>
+    <n v="7.1037037037037036"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5848,6 +6168,8 @@
     <s v="85% Dark Bars"/>
     <n v="2793"/>
     <n v="114"/>
+    <n v="24.5"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5855,6 +6177,8 @@
     <s v="50% Dark Bites"/>
     <n v="4606"/>
     <n v="63"/>
+    <n v="73.111111111111114"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5862,6 +6186,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="5551"/>
     <n v="252"/>
+    <n v="22.027777777777779"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -5869,6 +6195,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="6657"/>
     <n v="303"/>
+    <n v="21.970297029702969"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5876,6 +6204,8 @@
     <s v="Eclairs"/>
     <n v="4438"/>
     <n v="246"/>
+    <n v="18.040650406504064"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5883,6 +6213,8 @@
     <s v="After Nines"/>
     <n v="168"/>
     <n v="84"/>
+    <n v="2"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5890,6 +6222,8 @@
     <s v="Eclairs"/>
     <n v="7777"/>
     <n v="39"/>
+    <n v="199.41025641025641"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5897,6 +6231,8 @@
     <s v="Eclairs"/>
     <n v="3339"/>
     <n v="348"/>
+    <n v="9.5948275862068968"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5904,6 +6240,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="6391"/>
     <n v="48"/>
+    <n v="133.14583333333334"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5911,6 +6249,8 @@
     <s v="After Nines"/>
     <n v="518"/>
     <n v="75"/>
+    <n v="6.9066666666666663"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5918,6 +6258,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="5677"/>
     <n v="258"/>
+    <n v="22.003875968992247"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5925,6 +6267,8 @@
     <s v="Eclairs"/>
     <n v="6048"/>
     <n v="27"/>
+    <n v="224"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5932,6 +6276,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="3752"/>
     <n v="213"/>
+    <n v="17.615023474178404"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -5939,6 +6285,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="4480"/>
     <n v="357"/>
+    <n v="12.549019607843137"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -5946,6 +6294,8 @@
     <s v="Almond Choco"/>
     <n v="259"/>
     <n v="207"/>
+    <n v="1.251207729468599"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5953,6 +6303,8 @@
     <s v="70% Dark Bites"/>
     <n v="42"/>
     <n v="150"/>
+    <n v="0.28000000000000003"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5960,6 +6312,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="98"/>
     <n v="204"/>
+    <n v="0.48039215686274511"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -5967,6 +6321,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="2478"/>
     <n v="21"/>
+    <n v="118"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -5974,6 +6330,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="7847"/>
     <n v="174"/>
+    <n v="45.097701149425291"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5981,6 +6339,8 @@
     <s v="Eclairs"/>
     <n v="9926"/>
     <n v="201"/>
+    <n v="49.383084577114431"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -5988,6 +6348,8 @@
     <s v="Milk Bars"/>
     <n v="819"/>
     <n v="510"/>
+    <n v="1.6058823529411765"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -5995,6 +6357,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="3052"/>
     <n v="378"/>
+    <n v="8.0740740740740744"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6002,6 +6366,8 @@
     <s v="Spicy Special Slims"/>
     <n v="6832"/>
     <n v="27"/>
+    <n v="253.03703703703704"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6009,6 +6375,8 @@
     <s v="Mint Chip Choco"/>
     <n v="2016"/>
     <n v="117"/>
+    <n v="17.23076923076923"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6016,6 +6384,8 @@
     <s v="Spicy Special Slims"/>
     <n v="7322"/>
     <n v="36"/>
+    <n v="203.38888888888889"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6023,6 +6393,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="357"/>
     <n v="126"/>
+    <n v="2.8333333333333335"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6030,6 +6402,8 @@
     <s v="White Choc"/>
     <n v="3192"/>
     <n v="72"/>
+    <n v="44.333333333333336"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6037,6 +6411,8 @@
     <s v="After Nines"/>
     <n v="8435"/>
     <n v="42"/>
+    <n v="200.83333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6044,6 +6420,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="0"/>
     <n v="135"/>
+    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6051,6 +6429,8 @@
     <s v="85% Dark Bars"/>
     <n v="8862"/>
     <n v="189"/>
+    <n v="46.888888888888886"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6058,6 +6438,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="3556"/>
     <n v="459"/>
+    <n v="7.7472766884531588"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6065,6 +6447,8 @@
     <s v="Raspberry Choco"/>
     <n v="7280"/>
     <n v="201"/>
+    <n v="36.218905472636813"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6072,6 +6456,8 @@
     <s v="70% Dark Bites"/>
     <n v="3402"/>
     <n v="366"/>
+    <n v="9.2950819672131146"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6079,6 +6465,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="4592"/>
     <n v="324"/>
+    <n v="14.17283950617284"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6086,6 +6474,8 @@
     <s v="Raspberry Choco"/>
     <n v="7833"/>
     <n v="243"/>
+    <n v="32.23456790123457"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6093,6 +6483,8 @@
     <s v="Spicy Special Slims"/>
     <n v="7651"/>
     <n v="213"/>
+    <n v="35.920187793427232"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6100,6 +6492,8 @@
     <s v="70% Dark Bites"/>
     <n v="2275"/>
     <n v="447"/>
+    <n v="5.089485458612975"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6107,6 +6501,8 @@
     <s v="Milk Bars"/>
     <n v="5670"/>
     <n v="297"/>
+    <n v="19.09090909090909"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6114,6 +6510,8 @@
     <s v="Mint Chip Choco"/>
     <n v="2135"/>
     <n v="27"/>
+    <n v="79.074074074074076"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6121,6 +6519,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="2779"/>
     <n v="75"/>
+    <n v="37.053333333333335"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6128,6 +6528,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="12950"/>
     <n v="30"/>
+    <n v="431.66666666666669"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6135,6 +6537,8 @@
     <s v="Drinking Coco"/>
     <n v="2646"/>
     <n v="177"/>
+    <n v="14.949152542372881"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6142,6 +6546,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="3794"/>
     <n v="159"/>
+    <n v="23.861635220125788"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6149,6 +6555,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="819"/>
     <n v="306"/>
+    <n v="2.6764705882352939"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6156,6 +6564,8 @@
     <s v="Orange Choco"/>
     <n v="2583"/>
     <n v="18"/>
+    <n v="143.5"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6163,6 +6573,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="4585"/>
     <n v="240"/>
+    <n v="19.104166666666668"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6170,6 +6582,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="1652"/>
     <n v="93"/>
+    <n v="17.763440860215052"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6177,6 +6591,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="4991"/>
     <n v="9"/>
+    <n v="554.55555555555554"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6184,6 +6600,8 @@
     <s v="Mint Chip Choco"/>
     <n v="2009"/>
     <n v="219"/>
+    <n v="9.173515981735159"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6191,6 +6609,8 @@
     <s v="After Nines"/>
     <n v="1568"/>
     <n v="141"/>
+    <n v="11.120567375886525"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6198,6 +6618,8 @@
     <s v="Orange Choco"/>
     <n v="3388"/>
     <n v="123"/>
+    <n v="27.54471544715447"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6205,6 +6627,8 @@
     <s v="85% Dark Bars"/>
     <n v="623"/>
     <n v="51"/>
+    <n v="12.215686274509803"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6212,6 +6636,8 @@
     <s v="Almond Choco"/>
     <n v="10073"/>
     <n v="120"/>
+    <n v="83.941666666666663"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6219,6 +6645,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="1561"/>
     <n v="27"/>
+    <n v="57.814814814814817"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6226,6 +6654,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="11522"/>
     <n v="204"/>
+    <n v="56.480392156862742"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6233,6 +6663,8 @@
     <s v="Milk Bars"/>
     <n v="2317"/>
     <n v="123"/>
+    <n v="18.837398373983739"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6240,6 +6672,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="3059"/>
     <n v="27"/>
+    <n v="113.29629629629629"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6247,6 +6681,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="2324"/>
     <n v="177"/>
+    <n v="13.129943502824858"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6254,6 +6690,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="4956"/>
     <n v="171"/>
+    <n v="28.982456140350877"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6261,6 +6699,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="5355"/>
     <n v="204"/>
+    <n v="26.25"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6268,6 +6708,8 @@
     <s v="50% Dark Bites"/>
     <n v="7259"/>
     <n v="276"/>
+    <n v="26.30072463768116"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6275,6 +6717,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="6279"/>
     <n v="45"/>
+    <n v="139.53333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6282,6 +6726,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="2541"/>
     <n v="45"/>
+    <n v="56.466666666666669"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6289,6 +6735,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="3864"/>
     <n v="177"/>
+    <n v="21.83050847457627"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6296,6 +6744,8 @@
     <s v="Milk Bars"/>
     <n v="6146"/>
     <n v="63"/>
+    <n v="97.555555555555557"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6303,6 +6753,8 @@
     <s v="Drinking Coco"/>
     <n v="2639"/>
     <n v="204"/>
+    <n v="12.936274509803921"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6310,6 +6762,8 @@
     <s v="After Nines"/>
     <n v="1890"/>
     <n v="195"/>
+    <n v="9.6923076923076916"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6317,6 +6771,8 @@
     <s v="50% Dark Bites"/>
     <n v="1932"/>
     <n v="369"/>
+    <n v="5.2357723577235769"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6324,6 +6780,8 @@
     <s v="White Choc"/>
     <n v="6300"/>
     <n v="42"/>
+    <n v="150"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6331,6 +6789,8 @@
     <s v="70% Dark Bites"/>
     <n v="560"/>
     <n v="81"/>
+    <n v="6.9135802469135799"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6338,6 +6798,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="2856"/>
     <n v="246"/>
+    <n v="11.609756097560975"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6345,6 +6807,8 @@
     <s v="Eclairs"/>
     <n v="707"/>
     <n v="174"/>
+    <n v="4.0632183908045976"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6352,6 +6816,8 @@
     <s v="70% Dark Bites"/>
     <n v="3598"/>
     <n v="81"/>
+    <n v="44.419753086419753"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6359,6 +6825,8 @@
     <s v="After Nines"/>
     <n v="6853"/>
     <n v="372"/>
+    <n v="18.422043010752688"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6366,6 +6834,8 @@
     <s v="Mint Chip Choco"/>
     <n v="4725"/>
     <n v="174"/>
+    <n v="27.155172413793103"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6373,6 +6843,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="10304"/>
     <n v="84"/>
+    <n v="122.66666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6380,6 +6852,8 @@
     <s v="Mint Chip Choco"/>
     <n v="1274"/>
     <n v="225"/>
+    <n v="5.6622222222222218"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6387,6 +6861,8 @@
     <s v="70% Dark Bites"/>
     <n v="1526"/>
     <n v="105"/>
+    <n v="14.533333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6394,6 +6870,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="3101"/>
     <n v="225"/>
+    <n v="13.782222222222222"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6401,6 +6879,8 @@
     <s v="50% Dark Bites"/>
     <n v="1057"/>
     <n v="54"/>
+    <n v="19.574074074074073"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6408,6 +6888,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="5306"/>
     <n v="0"/>
+    <e v="#DIV/0!"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6415,6 +6897,8 @@
     <s v="85% Dark Bars"/>
     <n v="4018"/>
     <n v="171"/>
+    <n v="23.497076023391813"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6422,6 +6906,8 @@
     <s v="Mint Chip Choco"/>
     <n v="938"/>
     <n v="189"/>
+    <n v="4.9629629629629628"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6429,6 +6915,8 @@
     <s v="Drinking Coco"/>
     <n v="1778"/>
     <n v="270"/>
+    <n v="6.5851851851851855"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6436,6 +6924,8 @@
     <s v="70% Dark Bites"/>
     <n v="1638"/>
     <n v="63"/>
+    <n v="26"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6443,6 +6933,8 @@
     <s v="White Choc"/>
     <n v="154"/>
     <n v="21"/>
+    <n v="7.333333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6450,6 +6942,8 @@
     <s v="After Nines"/>
     <n v="9835"/>
     <n v="207"/>
+    <n v="47.512077294685987"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6457,6 +6951,8 @@
     <s v="Orange Choco"/>
     <n v="7273"/>
     <n v="96"/>
+    <n v="75.760416666666671"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6464,6 +6960,8 @@
     <s v="After Nines"/>
     <n v="6909"/>
     <n v="81"/>
+    <n v="85.296296296296291"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6471,6 +6969,8 @@
     <s v="85% Dark Bars"/>
     <n v="3920"/>
     <n v="306"/>
+    <n v="12.81045751633987"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6478,6 +6978,8 @@
     <s v="Spicy Special Slims"/>
     <n v="4858"/>
     <n v="279"/>
+    <n v="17.412186379928315"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6485,6 +6987,8 @@
     <s v="Almond Choco"/>
     <n v="3549"/>
     <n v="3"/>
+    <n v="1183"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6492,6 +6996,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="966"/>
     <n v="198"/>
+    <n v="4.8787878787878789"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6499,6 +7005,8 @@
     <s v="Drinking Coco"/>
     <n v="385"/>
     <n v="249"/>
+    <n v="1.5461847389558232"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6506,6 +7014,8 @@
     <s v="Mint Chip Choco"/>
     <n v="2219"/>
     <n v="75"/>
+    <n v="29.586666666666666"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6513,6 +7023,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="2954"/>
     <n v="189"/>
+    <n v="15.62962962962963"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6520,6 +7032,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="280"/>
     <n v="87"/>
+    <n v="3.2183908045977012"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6527,6 +7041,8 @@
     <s v="70% Dark Bites"/>
     <n v="6118"/>
     <n v="174"/>
+    <n v="35.160919540229884"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6534,6 +7050,8 @@
     <s v="Raspberry Choco"/>
     <n v="4802"/>
     <n v="36"/>
+    <n v="133.38888888888889"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6541,6 +7059,8 @@
     <s v="85% Dark Bars"/>
     <n v="4137"/>
     <n v="60"/>
+    <n v="68.95"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6548,6 +7068,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="2023"/>
     <n v="78"/>
+    <n v="25.935897435897434"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6555,6 +7077,8 @@
     <s v="70% Dark Bites"/>
     <n v="9051"/>
     <n v="57"/>
+    <n v="158.78947368421052"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6562,6 +7086,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="2919"/>
     <n v="45"/>
+    <n v="64.86666666666666"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6569,6 +7095,8 @@
     <s v="After Nines"/>
     <n v="5915"/>
     <n v="3"/>
+    <n v="1971.6666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6576,6 +7104,8 @@
     <s v="Raspberry Choco"/>
     <n v="2562"/>
     <n v="6"/>
+    <n v="427"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6583,6 +7113,8 @@
     <s v="White Choc"/>
     <n v="8813"/>
     <n v="21"/>
+    <n v="419.66666666666669"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6590,6 +7122,8 @@
     <s v="Drinking Coco"/>
     <n v="6111"/>
     <n v="3"/>
+    <n v="2037"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6597,6 +7131,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="3507"/>
     <n v="288"/>
+    <n v="12.177083333333334"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6604,6 +7140,8 @@
     <s v="Milk Bars"/>
     <n v="4319"/>
     <n v="30"/>
+    <n v="143.96666666666667"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6611,6 +7149,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="609"/>
     <n v="87"/>
+    <n v="7"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6618,6 +7158,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="6370"/>
     <n v="30"/>
+    <n v="212.33333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6625,6 +7167,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="5474"/>
     <n v="168"/>
+    <n v="32.583333333333336"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6632,6 +7176,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="3164"/>
     <n v="306"/>
+    <n v="10.339869281045752"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6639,6 +7185,8 @@
     <s v="Almond Choco"/>
     <n v="1302"/>
     <n v="402"/>
+    <n v="3.2388059701492535"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6646,6 +7194,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="7308"/>
     <n v="327"/>
+    <n v="22.348623853211009"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6653,6 +7203,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="6132"/>
     <n v="93"/>
+    <n v="65.935483870967744"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6660,6 +7212,8 @@
     <s v="50% Dark Bites"/>
     <n v="3472"/>
     <n v="96"/>
+    <n v="36.166666666666664"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6667,6 +7221,8 @@
     <s v="Drinking Coco"/>
     <n v="9660"/>
     <n v="27"/>
+    <n v="357.77777777777777"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6674,6 +7230,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="2436"/>
     <n v="99"/>
+    <n v="24.606060606060606"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -6681,6 +7239,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="9506"/>
     <n v="87"/>
+    <n v="109.26436781609195"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6688,6 +7248,8 @@
     <s v="Spicy Special Slims"/>
     <n v="245"/>
     <n v="288"/>
+    <n v="0.85069444444444442"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6695,6 +7257,8 @@
     <s v="Orange Choco"/>
     <n v="2702"/>
     <n v="363"/>
+    <n v="7.443526170798898"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6702,6 +7266,8 @@
     <s v="Eclairs"/>
     <n v="700"/>
     <n v="87"/>
+    <n v="8.0459770114942533"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6709,6 +7275,8 @@
     <s v="Eclairs"/>
     <n v="3759"/>
     <n v="150"/>
+    <n v="25.06"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6716,6 +7284,8 @@
     <s v="Eclairs"/>
     <n v="1589"/>
     <n v="303"/>
+    <n v="5.2442244224422438"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6723,6 +7293,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="5194"/>
     <n v="288"/>
+    <n v="18.034722222222221"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6730,6 +7302,8 @@
     <s v="Milk Bars"/>
     <n v="945"/>
     <n v="75"/>
+    <n v="12.6"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6737,6 +7311,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="1988"/>
     <n v="39"/>
+    <n v="50.974358974358971"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6744,6 +7320,8 @@
     <s v="Choco Coated Almonds"/>
     <n v="6734"/>
     <n v="123"/>
+    <n v="54.747967479674799"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6751,6 +7329,8 @@
     <s v="Almond Choco"/>
     <n v="217"/>
     <n v="36"/>
+    <n v="6.0277777777777777"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6758,6 +7338,8 @@
     <s v="After Nines"/>
     <n v="6279"/>
     <n v="237"/>
+    <n v="26.49367088607595"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6765,6 +7347,8 @@
     <s v="Milk Bars"/>
     <n v="4424"/>
     <n v="201"/>
+    <n v="22.009950248756219"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6772,6 +7356,8 @@
     <s v="Eclairs"/>
     <n v="189"/>
     <n v="48"/>
+    <n v="3.9375"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6779,6 +7365,8 @@
     <s v="After Nines"/>
     <n v="490"/>
     <n v="84"/>
+    <n v="5.833333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6786,6 +7374,8 @@
     <s v="Spicy Special Slims"/>
     <n v="434"/>
     <n v="87"/>
+    <n v="4.9885057471264371"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6793,6 +7383,8 @@
     <s v="70% Dark Bites"/>
     <n v="10129"/>
     <n v="312"/>
+    <n v="32.464743589743591"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6800,6 +7392,8 @@
     <s v="Caramel Stuffed Bars"/>
     <n v="1652"/>
     <n v="102"/>
+    <n v="16.196078431372548"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6807,6 +7401,8 @@
     <s v="Spicy Special Slims"/>
     <n v="6433"/>
     <n v="78"/>
+    <n v="82.474358974358978"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6814,6 +7410,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="2212"/>
     <n v="117"/>
+    <n v="18.905982905982906"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6821,6 +7419,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="609"/>
     <n v="99"/>
+    <n v="6.1515151515151514"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6828,6 +7428,8 @@
     <s v="85% Dark Bars"/>
     <n v="1638"/>
     <n v="48"/>
+    <n v="34.125"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6835,6 +7437,8 @@
     <s v="Raspberry Choco"/>
     <n v="3829"/>
     <n v="24"/>
+    <n v="159.54166666666666"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6842,6 +7446,8 @@
     <s v="Raspberry Choco"/>
     <n v="5775"/>
     <n v="42"/>
+    <n v="137.5"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6849,6 +7455,8 @@
     <s v="Orange Choco"/>
     <n v="1071"/>
     <n v="270"/>
+    <n v="3.9666666666666668"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6856,6 +7464,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="5019"/>
     <n v="150"/>
+    <n v="33.46"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6863,6 +7473,8 @@
     <s v="Raspberry Choco"/>
     <n v="2863"/>
     <n v="42"/>
+    <n v="68.166666666666671"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6870,6 +7482,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="1617"/>
     <n v="126"/>
+    <n v="12.833333333333334"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6877,6 +7491,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="6818"/>
     <n v="6"/>
+    <n v="1136.3333333333333"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6884,6 +7500,8 @@
     <s v="Raspberry Choco"/>
     <n v="6657"/>
     <n v="276"/>
+    <n v="24.119565217391305"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6891,6 +7509,8 @@
     <s v="Eclairs"/>
     <n v="2919"/>
     <n v="93"/>
+    <n v="31.387096774193548"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6898,6 +7518,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="3094"/>
     <n v="246"/>
+    <n v="12.577235772357724"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6905,6 +7527,8 @@
     <s v="85% Dark Bars"/>
     <n v="2989"/>
     <n v="3"/>
+    <n v="996.33333333333337"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -6912,6 +7536,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="2268"/>
     <n v="63"/>
+    <n v="36"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6919,6 +7545,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="4753"/>
     <n v="246"/>
+    <n v="19.321138211382113"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6926,6 +7554,8 @@
     <s v="99% Dark &amp; Pure"/>
     <n v="7511"/>
     <n v="120"/>
+    <n v="62.591666666666669"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -6933,6 +7563,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="4326"/>
     <n v="348"/>
+    <n v="12.431034482758621"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -6940,6 +7572,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="4935"/>
     <n v="126"/>
+    <n v="39.166666666666664"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6947,6 +7581,8 @@
     <s v="70% Dark Bites"/>
     <n v="4781"/>
     <n v="123"/>
+    <n v="38.869918699186989"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -6954,6 +7590,8 @@
     <s v="White Choc"/>
     <n v="7483"/>
     <n v="45"/>
+    <n v="166.28888888888889"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6961,6 +7599,8 @@
     <s v="Almond Choco"/>
     <n v="6860"/>
     <n v="126"/>
+    <n v="54.444444444444443"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -6968,6 +7608,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="9002"/>
     <n v="72"/>
+    <n v="125.02777777777777"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -6975,6 +7617,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="1400"/>
     <n v="135"/>
+    <n v="10.37037037037037"/>
+    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -6982,6 +7626,8 @@
     <s v="After Nines"/>
     <n v="4053"/>
     <n v="24"/>
+    <n v="168.875"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -6989,6 +7635,8 @@
     <s v="Smooth Sliky Salty"/>
     <n v="2149"/>
     <n v="117"/>
+    <n v="18.367521367521366"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -6996,6 +7644,8 @@
     <s v="Manuka Honey Choco"/>
     <n v="3640"/>
     <n v="51"/>
+    <n v="71.372549019607845"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -7003,6 +7653,8 @@
     <s v="Fruit &amp; Nut Bars"/>
     <n v="630"/>
     <n v="36"/>
+    <n v="17.5"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -7010,6 +7662,8 @@
     <s v="Organic Choco Syrup"/>
     <n v="2429"/>
     <n v="144"/>
+    <n v="16.868055555555557"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -7017,6 +7671,8 @@
     <s v="White Choc"/>
     <n v="2142"/>
     <n v="114"/>
+    <n v="18.789473684210527"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -7024,6 +7680,8 @@
     <s v="70% Dark Bites"/>
     <n v="6454"/>
     <n v="54"/>
+    <n v="119.51851851851852"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -7031,6 +7689,8 @@
     <s v="Mint Chip Choco"/>
     <n v="4487"/>
     <n v="333"/>
+    <n v="13.474474474474475"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -7038,6 +7698,8 @@
     <s v="Almond Choco"/>
     <n v="938"/>
     <n v="366"/>
+    <n v="2.5628415300546448"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -7045,6 +7707,8 @@
     <s v="Baker's Choco Chips"/>
     <n v="8841"/>
     <n v="303"/>
+    <n v="29.178217821782177"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -7052,6 +7716,8 @@
     <s v="Peanut Butter Cubes"/>
     <n v="4018"/>
     <n v="126"/>
+    <n v="31.888888888888889"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -7059,6 +7725,8 @@
     <s v="Raspberry Choco"/>
     <n v="714"/>
     <n v="231"/>
+    <n v="3.0909090909090908"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -7066,14 +7734,16 @@
     <s v="White Choc"/>
     <n v="3850"/>
     <n v="102"/>
+    <n v="37.745098039215684"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{002C8F0C-F78B-446E-9A0F-6AA9616465D1}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{002C8F0C-F78B-446E-9A0F-6AA9616465D1}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="7">
     <pivotField showAll="0">
       <items count="11">
         <item h="1" x="7"/>
@@ -7103,6 +7773,8 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -7336,9 +8008,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20BAC633-877D-4014-9963-3FA293B6D252}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I3:J70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF4F8649-D5E2-495D-A2FB-3F30044D99F3}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="11">
         <item x="7"/>
@@ -7386,6 +8058,8 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
@@ -7613,9 +8287,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF4F8649-D5E2-495D-A2FB-3F30044D99F3}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20BAC633-877D-4014-9963-3FA293B6D252}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="11">
         <item x="7"/>
@@ -7663,6 +8337,8 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
@@ -7924,28 +8600,32 @@
   <autoFilter ref="Y11:Z33" xr:uid="{6DAC1E92-D947-4232-891E-65555AD7A47E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1B8963D1-E60F-4400-A175-651A513B826F}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{1798A7DA-FB9F-46D3-AA0A-B6BCA4A81AC3}" name="Cost per unit" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1798A7DA-FB9F-46D3-AA0A-B6BCA4A81AC3}" name="Cost per unit" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13A21AE3-FC28-4B40-84B1-D9FB18E4F479}" name="Table2" displayName="Table2" ref="C11:G311" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="C11:G311" xr:uid="{13A21AE3-FC28-4B40-84B1-D9FB18E4F479}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13A21AE3-FC28-4B40-84B1-D9FB18E4F479}" name="Table2" displayName="Table2" ref="C11:I311" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="C11:I311" xr:uid="{13A21AE3-FC28-4B40-84B1-D9FB18E4F479}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8CC750C7-86C9-4F68-A639-8AEA5F0C31A9}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{A4E28DCB-338A-4627-90E3-ECF313C16B7D}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{F214751F-29D1-4011-B363-111D09D685C0}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{55C5E07C-899F-4E14-845A-8C11A55AD6C8}" name="Amount" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C0CFDCDA-0730-4F33-82EB-21F489CED1DF}" name="Units" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{55C5E07C-899F-4E14-845A-8C11A55AD6C8}" name="Amount" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C0CFDCDA-0730-4F33-82EB-21F489CED1DF}" name="Units" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1515E729-0C27-45D7-9C8A-05FB7F658F60}" name="cost per unit" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8FC38C38-AC86-41AB-9361-426BF2C40287}" name="cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8EFA030-8C23-4F4E-806D-776BA17ECC07}" name="Table26" displayName="Table26" ref="B4:F304" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8EFA030-8C23-4F4E-806D-776BA17ECC07}" name="Table26" displayName="Table26" ref="B4:F304" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B4:F304" xr:uid="{D8EFA030-8C23-4F4E-806D-776BA17ECC07}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F304">
     <sortCondition descending="1" ref="E4:E304"/>
@@ -7954,22 +8634,22 @@
     <tableColumn id="1" xr3:uid="{23AFC816-8AFA-4226-9278-8450C8FA6F74}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{9BB67843-FC54-45B5-B7B3-805E3979C126}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{F500553E-0988-45F9-9CCF-35482C748090}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{22988461-323D-4E15-851D-C85279F248A9}" name="Amount" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8F466424-86ED-4044-93C9-2E422BE27867}" name="Units" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{22988461-323D-4E15-851D-C85279F248A9}" name="Amount" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8F466424-86ED-4044-93C9-2E422BE27867}" name="Units" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DF87F69-6102-4E41-A67C-33E3274E4A10}" name="Table24" displayName="Table24" ref="C5:G305" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DF87F69-6102-4E41-A67C-33E3274E4A10}" name="Table24" displayName="Table24" ref="C5:G305" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="C5:G305" xr:uid="{3DF87F69-6102-4E41-A67C-33E3274E4A10}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0213D5D0-ABF4-4FBA-A976-26B4ECF5FF68}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{FA53EF96-F795-450D-A5CA-A9F0ACFD15DC}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{62DC7379-DE8D-45E2-908C-F6127D4A3AFA}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{FEB30379-BF2F-4640-8E30-82DEE292FB3D}" name="Amount" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C41DF0C6-A768-4578-B025-0ED2D2EB362D}" name="Units" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{FEB30379-BF2F-4640-8E30-82DEE292FB3D}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C41DF0C6-A768-4578-B025-0ED2D2EB362D}" name="Units" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8275,7 +8955,7 @@
   <dimension ref="A1:Z658"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G311"/>
+      <selection activeCell="C12" sqref="C12:C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8287,6 +8967,7 @@
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
     <col min="11" max="11" width="53.85546875" customWidth="1"/>
     <col min="25" max="25" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -8316,6 +8997,12 @@
       <c r="G11" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="J11" s="9" t="s">
         <v>43</v>
       </c>
@@ -8343,6 +9030,10 @@
       <c r="G12" s="5">
         <v>114</v>
       </c>
+      <c r="H12" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>14.245614035087719</v>
+      </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
@@ -8372,6 +9063,10 @@
       <c r="G13" s="5">
         <v>459</v>
       </c>
+      <c r="H13" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>14.610021786492375</v>
+      </c>
       <c r="J13" s="7">
         <v>2</v>
       </c>
@@ -8401,6 +9096,10 @@
       <c r="G14" s="5">
         <v>147</v>
       </c>
+      <c r="H14" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.5238095238095237</v>
+      </c>
       <c r="J14" s="7">
         <v>3</v>
       </c>
@@ -8430,6 +9129,10 @@
       <c r="G15" s="5">
         <v>288</v>
       </c>
+      <c r="H15" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>33.444444444444443</v>
+      </c>
       <c r="J15" s="7">
         <v>4</v>
       </c>
@@ -8459,6 +9162,10 @@
       <c r="G16" s="5">
         <v>414</v>
       </c>
+      <c r="H16" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>5.0724637681159424</v>
+      </c>
       <c r="J16" s="7">
         <v>5</v>
       </c>
@@ -8488,6 +9195,10 @@
       <c r="G17" s="5">
         <v>432</v>
       </c>
+      <c r="H17" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>20.530092592592592</v>
+      </c>
       <c r="J17" s="7">
         <v>6</v>
       </c>
@@ -8517,6 +9228,10 @@
       <c r="G18" s="5">
         <v>54</v>
       </c>
+      <c r="H18" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>49.648148148148145</v>
+      </c>
       <c r="J18" s="7">
         <v>7</v>
       </c>
@@ -8546,6 +9261,10 @@
       <c r="G19" s="5">
         <v>210</v>
       </c>
+      <c r="H19" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>23.866666666666667</v>
+      </c>
       <c r="J19" s="7">
         <v>8</v>
       </c>
@@ -8575,6 +9294,10 @@
       <c r="G20" s="5">
         <v>75</v>
       </c>
+      <c r="H20" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.079999999999998</v>
+      </c>
       <c r="J20" s="7">
         <v>9</v>
       </c>
@@ -8604,6 +9327,10 @@
       <c r="G21" s="5">
         <v>12</v>
       </c>
+      <c r="H21" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>415.91666666666669</v>
+      </c>
       <c r="J21" s="7">
         <v>10</v>
       </c>
@@ -8633,6 +9360,10 @@
       <c r="G22" s="5">
         <v>462</v>
       </c>
+      <c r="H22" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.8636363636363638</v>
+      </c>
       <c r="Y22" t="s">
         <v>22</v>
       </c>
@@ -8656,6 +9387,10 @@
       <c r="G23" s="5">
         <v>144</v>
       </c>
+      <c r="H23" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>27.659722222222221</v>
+      </c>
       <c r="Y23" t="s">
         <v>23</v>
       </c>
@@ -8679,6 +9414,10 @@
       <c r="G24" s="5">
         <v>120</v>
       </c>
+      <c r="H24" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>22.05</v>
+      </c>
       <c r="Y24" t="s">
         <v>24</v>
       </c>
@@ -8702,6 +9441,10 @@
       <c r="G25" s="5">
         <v>54</v>
       </c>
+      <c r="H25" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.666666666666667</v>
+      </c>
       <c r="Y25" t="s">
         <v>25</v>
       </c>
@@ -8725,6 +9468,10 @@
       <c r="G26" s="5">
         <v>234</v>
       </c>
+      <c r="H26" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.52991452991453</v>
+      </c>
       <c r="Y26" t="s">
         <v>26</v>
       </c>
@@ -8748,6 +9495,10 @@
       <c r="G27" s="5">
         <v>66</v>
       </c>
+      <c r="H27" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>32.030303030303031</v>
+      </c>
       <c r="Y27" t="s">
         <v>27</v>
       </c>
@@ -8771,6 +9522,10 @@
       <c r="G28" s="5">
         <v>87</v>
       </c>
+      <c r="H28" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>88.425287356321846</v>
+      </c>
       <c r="Y28" t="s">
         <v>28</v>
       </c>
@@ -8794,6 +9549,10 @@
       <c r="G29" s="5">
         <v>339</v>
       </c>
+      <c r="H29" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>46.047197640117993</v>
+      </c>
       <c r="Y29" t="s">
         <v>29</v>
       </c>
@@ -8817,6 +9576,10 @@
       <c r="G30" s="5">
         <v>144</v>
       </c>
+      <c r="H30" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2.3333333333333335</v>
+      </c>
       <c r="Y30" t="s">
         <v>30</v>
       </c>
@@ -8840,6 +9603,10 @@
       <c r="G31" s="5">
         <v>162</v>
       </c>
+      <c r="H31" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>58.290123456790127</v>
+      </c>
       <c r="Y31" t="s">
         <v>31</v>
       </c>
@@ -8863,6 +9630,10 @@
       <c r="G32" s="5">
         <v>90</v>
       </c>
+      <c r="H32" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>90.611111111111114</v>
+      </c>
       <c r="Y32" t="s">
         <v>32</v>
       </c>
@@ -8886,6 +9657,10 @@
       <c r="G33" s="5">
         <v>234</v>
       </c>
+      <c r="H33" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.2692307692307692</v>
+      </c>
       <c r="Y33" t="s">
         <v>33</v>
       </c>
@@ -8909,6 +9684,10 @@
       <c r="G34" s="5">
         <v>141</v>
       </c>
+      <c r="H34" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>15.638297872340425</v>
+      </c>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
@@ -8926,6 +9705,10 @@
       <c r="G35" s="5">
         <v>204</v>
       </c>
+      <c r="H35" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>8.6813725490196081</v>
+      </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
@@ -8943,6 +9726,10 @@
       <c r="G36" s="5">
         <v>186</v>
       </c>
+      <c r="H36" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>11.365591397849462</v>
+      </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
@@ -8960,6 +9747,10 @@
       <c r="G37" s="5">
         <v>231</v>
       </c>
+      <c r="H37" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>44.636363636363633</v>
+      </c>
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
@@ -8977,6 +9768,10 @@
       <c r="G38" s="5">
         <v>168</v>
       </c>
+      <c r="H38" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
@@ -8994,6 +9789,10 @@
       <c r="G39" s="5">
         <v>195</v>
       </c>
+      <c r="H39" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.123076923076923</v>
+      </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
@@ -9011,6 +9810,10 @@
       <c r="G40" s="5">
         <v>15</v>
       </c>
+      <c r="H40" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>420.93333333333334</v>
+      </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
@@ -9028,6 +9831,10 @@
       <c r="G41" s="5">
         <v>30</v>
       </c>
+      <c r="H41" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>156.1</v>
+      </c>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
@@ -9045,6 +9852,10 @@
       <c r="G42" s="5">
         <v>102</v>
       </c>
+      <c r="H42" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>62.725490196078432</v>
+      </c>
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
@@ -9062,6 +9873,10 @@
       <c r="G43" s="5">
         <v>15</v>
       </c>
+      <c r="H43" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>36.866666666666667</v>
+      </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
@@ -9079,6 +9894,10 @@
       <c r="G44" s="5">
         <v>183</v>
       </c>
+      <c r="H44" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>38.366120218579233</v>
+      </c>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
@@ -9096,6 +9915,10 @@
       <c r="G45" s="5">
         <v>12</v>
       </c>
+      <c r="H45" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>484.75</v>
+      </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
@@ -9113,6 +9936,10 @@
       <c r="G46" s="5">
         <v>72</v>
       </c>
+      <c r="H46" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>55.222222222222221</v>
+      </c>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
@@ -9130,6 +9957,10 @@
       <c r="G47" s="5">
         <v>282</v>
       </c>
+      <c r="H47" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.0212765957446805</v>
+      </c>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -9147,8 +9978,12 @@
       <c r="G48" s="5">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>41.854166666666664</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -9164,8 +9999,12 @@
       <c r="G49" s="5">
         <v>405</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.7012345679012348</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>7</v>
       </c>
@@ -9181,8 +10020,12 @@
       <c r="G50" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>43.493333333333332</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>40</v>
       </c>
@@ -9198,8 +10041,12 @@
       <c r="G51" s="5">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>16.955555555555556</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>5</v>
       </c>
@@ -9215,8 +10062,12 @@
       <c r="G52" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>332.66666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -9232,8 +10083,12 @@
       <c r="G53" s="5">
         <v>153</v>
       </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>28.869281045751634</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>6</v>
       </c>
@@ -9249,8 +10104,12 @@
       <c r="G54" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>96.13333333333334</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9266,8 +10125,12 @@
       <c r="G55" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>9.4705882352941178</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9283,8 +10146,12 @@
       <c r="G56" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>13.222222222222221</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9300,8 +10167,12 @@
       <c r="G57" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>26.185185185185187</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>5</v>
       </c>
@@ -9317,8 +10188,12 @@
       <c r="G58" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>241.66666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -9334,8 +10209,12 @@
       <c r="G59" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>6</v>
       </c>
@@ -9351,8 +10230,12 @@
       <c r="G60" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>40</v>
       </c>
@@ -9368,8 +10251,12 @@
       <c r="G61" s="5">
         <v>156</v>
       </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>32.17307692307692</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>5</v>
       </c>
@@ -9385,8 +10272,12 @@
       <c r="G62" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>414.97435897435895</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>6</v>
       </c>
@@ -9402,8 +10293,12 @@
       <c r="G63" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.8888888888888893</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -9419,8 +10314,12 @@
       <c r="G64" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>109.48</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -9436,8 +10335,12 @@
       <c r="G65" s="5">
         <v>183</v>
       </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>35.956284153005463</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>41</v>
       </c>
@@ -9453,8 +10356,12 @@
       <c r="G66" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>68.985507246376812</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>40</v>
       </c>
@@ -9470,8 +10377,12 @@
       <c r="G67" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>181.3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>41</v>
       </c>
@@ -9487,8 +10398,12 @@
       <c r="G68" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>37.512820512820511</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9504,8 +10419,12 @@
       <c r="G69" s="5">
         <v>504</v>
       </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>15.430555555555555</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>9</v>
       </c>
@@ -9521,8 +10440,12 @@
       <c r="G70" s="5">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.9743589743589745</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -9538,8 +10461,12 @@
       <c r="G71" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.7916666666666665</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>6</v>
       </c>
@@ -9555,8 +10482,12 @@
       <c r="G72" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>20.492753623188406</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>6</v>
       </c>
@@ -9572,8 +10503,12 @@
       <c r="G73" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>679.77777777777783</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>10</v>
       </c>
@@ -9589,8 +10524,12 @@
       <c r="G74" s="5">
         <v>261</v>
       </c>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>8.8773946360153264</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>6</v>
       </c>
@@ -9606,8 +10545,12 @@
       <c r="G75" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>156.33333333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>8</v>
       </c>
@@ -9623,8 +10566,12 @@
       <c r="G76" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>323.63333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>7</v>
       </c>
@@ -9640,8 +10587,12 @@
       <c r="G77" s="5">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>15.978260869565217</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>7</v>
       </c>
@@ -9657,8 +10608,12 @@
       <c r="G78" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>40.423423423423422</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>5</v>
       </c>
@@ -9674,8 +10629,12 @@
       <c r="G79" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -9691,8 +10650,12 @@
       <c r="G80" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>24.802469135802468</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>5</v>
       </c>
@@ -9708,8 +10671,12 @@
       <c r="G81" s="5">
         <v>195</v>
       </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.4153846153846157</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>10</v>
       </c>
@@ -9725,8 +10692,12 @@
       <c r="G82" s="5">
         <v>525</v>
       </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>7</v>
       </c>
@@ -9742,8 +10713,12 @@
       <c r="G83" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>46.375</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>9</v>
       </c>
@@ -9759,8 +10734,12 @@
       <c r="G84" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>95.526666666666671</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>9</v>
       </c>
@@ -9776,8 +10755,12 @@
       <c r="G85" s="5">
         <v>492</v>
       </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.201219512195124</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>5</v>
       </c>
@@ -9793,8 +10776,12 @@
       <c r="G86" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>28.343137254901961</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -9810,8 +10797,12 @@
       <c r="G87" s="5">
         <v>165</v>
       </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>22.866666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>41</v>
       </c>
@@ -9827,8 +10818,12 @@
       <c r="G88" s="5">
         <v>309</v>
       </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2.7637540453074432</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>6</v>
       </c>
@@ -9844,8 +10839,12 @@
       <c r="G89" s="5">
         <v>156</v>
       </c>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>31.858974358974358</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>9</v>
       </c>
@@ -9861,8 +10860,12 @@
       <c r="G90" s="5">
         <v>159</v>
       </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0.61635220125786161</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -9878,8 +10881,12 @@
       <c r="G91" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>66.621890547263675</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>8</v>
       </c>
@@ -9895,8 +10902,12 @@
       <c r="G92" s="5">
         <v>210</v>
       </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>42.333333333333336</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>2</v>
       </c>
@@ -9912,8 +10923,12 @@
       <c r="G93" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1.0980392156862746</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>3</v>
       </c>
@@ -9929,8 +10944,12 @@
       <c r="G94" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>85.615384615384613</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>10</v>
       </c>
@@ -9946,8 +10965,12 @@
       <c r="G95" s="5">
         <v>279</v>
       </c>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>13.648745519713261</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>10</v>
       </c>
@@ -9963,8 +10986,12 @@
       <c r="G96" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0.51219512195121952</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>2</v>
       </c>
@@ -9980,8 +11007,12 @@
       <c r="G97" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>96.444444444444443</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>40</v>
       </c>
@@ -9997,8 +11028,12 @@
       <c r="G98" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>366.33333333333331</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>3</v>
       </c>
@@ -10014,8 +11049,12 @@
       <c r="G99" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.0061728395061724</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>10</v>
       </c>
@@ -10031,8 +11070,12 @@
       <c r="G100" s="5">
         <v>228</v>
       </c>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2.486842105263158</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
@@ -10048,8 +11091,12 @@
       <c r="G101" s="5">
         <v>342</v>
       </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.2251461988304095</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>5</v>
       </c>
@@ -10065,8 +11112,12 @@
       <c r="G102" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>133.12962962962962</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>41</v>
       </c>
@@ -10082,8 +11133,12 @@
       <c r="G103" s="5">
         <v>216</v>
       </c>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>34.513888888888886</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>3</v>
       </c>
@@ -10099,8 +11154,12 @@
       <c r="G104" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>57.555555555555557</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>6</v>
       </c>
@@ -10116,8 +11175,12 @@
       <c r="G105" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.253333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>9</v>
       </c>
@@ -10133,8 +11196,12 @@
       <c r="G106" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>29.43010752688172</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>9</v>
       </c>
@@ -10150,8 +11217,12 @@
       <c r="G107" s="5">
         <v>156</v>
       </c>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>27.596153846153847</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>9</v>
       </c>
@@ -10167,8 +11238,12 @@
       <c r="G108" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>267.55555555555554</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>3</v>
       </c>
@@ -10184,8 +11259,12 @@
       <c r="G109" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>71.166666666666671</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>40</v>
       </c>
@@ -10201,8 +11280,12 @@
       <c r="G110" s="5">
         <v>234</v>
       </c>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>52.769230769230766</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>3</v>
       </c>
@@ -10218,8 +11301,12 @@
       <c r="G111" s="5">
         <v>312</v>
       </c>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>11.823717948717949</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>7</v>
       </c>
@@ -10235,8 +11322,12 @@
       <c r="G112" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>9.5666666666666664</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>2</v>
       </c>
@@ -10252,8 +11343,12 @@
       <c r="G113" s="5">
         <v>519</v>
       </c>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1.5375722543352601</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>41</v>
       </c>
@@ -10269,8 +11364,12 @@
       <c r="G114" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>325.88888888888891</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>5</v>
       </c>
@@ -10286,8 +11385,12 @@
       <c r="G115" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>304.88888888888891</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>40</v>
       </c>
@@ -10303,8 +11406,12 @@
       <c r="G116" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>108.57777777777778</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>7</v>
       </c>
@@ -10320,8 +11427,12 @@
       <c r="G117" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>2</v>
       </c>
@@ -10337,8 +11448,12 @@
       <c r="G118" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>543.66666666666663</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>40</v>
       </c>
@@ -10354,8 +11469,12 @@
       <c r="G119" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>140.58333333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>10</v>
       </c>
@@ -10371,8 +11490,12 @@
       <c r="G120" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>19.541666666666668</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>8</v>
       </c>
@@ -10388,8 +11511,12 @@
       <c r="G121" s="5">
         <v>168</v>
       </c>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.041666666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>5</v>
       </c>
@@ -10405,8 +11532,12 @@
       <c r="G122" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>102.66666666666667</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>41</v>
       </c>
@@ -10422,8 +11553,12 @@
       <c r="G123" s="5">
         <v>192</v>
       </c>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.026041666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>7</v>
       </c>
@@ -10439,8 +11574,12 @@
       <c r="G124" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>29.36888888888889</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>6</v>
       </c>
@@ -10456,8 +11595,12 @@
       <c r="G125" s="5">
         <v>456</v>
       </c>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.561403508771932</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>10</v>
       </c>
@@ -10473,8 +11616,12 @@
       <c r="G126" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>15.35483870967742</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>6</v>
       </c>
@@ -10490,8 +11637,12 @@
       <c r="G127" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>6</v>
       </c>
@@ -10507,8 +11658,12 @@
       <c r="G128" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>14.754901960784315</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>7</v>
       </c>
@@ -10524,8 +11679,12 @@
       <c r="G129" s="5">
         <v>252</v>
       </c>
-    </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>26.805555555555557</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>2</v>
       </c>
@@ -10541,8 +11700,12 @@
       <c r="G130" s="5">
         <v>138</v>
       </c>
-    </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>83.847826086956516</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>40</v>
       </c>
@@ -10558,8 +11721,12 @@
       <c r="G131" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>28.233333333333334</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>41</v>
       </c>
@@ -10575,8 +11742,12 @@
       <c r="G132" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.3583333333333334</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>40</v>
       </c>
@@ -10592,8 +11763,12 @@
       <c r="G133" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>60.049019607843135</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>41</v>
       </c>
@@ -10609,8 +11784,12 @@
       <c r="G134" s="5">
         <v>129</v>
       </c>
-    </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.5658914728682172</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>8</v>
       </c>
@@ -10626,8 +11805,12 @@
       <c r="G135" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>15.843333333333334</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>6</v>
       </c>
@@ -10643,8 +11826,12 @@
       <c r="G136" s="5">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.1037037037037036</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>7</v>
       </c>
@@ -10660,8 +11847,12 @@
       <c r="G137" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>7</v>
       </c>
@@ -10677,8 +11868,12 @@
       <c r="G138" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>73.111111111111114</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>7</v>
       </c>
@@ -10694,8 +11889,12 @@
       <c r="G139" s="5">
         <v>252</v>
       </c>
-    </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>22.027777777777779</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>10</v>
       </c>
@@ -10711,8 +11910,12 @@
       <c r="G140" s="5">
         <v>303</v>
       </c>
-    </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>21.970297029702969</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>7</v>
       </c>
@@ -10728,8 +11931,12 @@
       <c r="G141" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.040650406504064</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>8</v>
       </c>
@@ -10745,8 +11952,12 @@
       <c r="G142" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>7</v>
       </c>
@@ -10762,8 +11973,12 @@
       <c r="G143" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>199.41025641025641</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>5</v>
       </c>
@@ -10779,8 +11994,12 @@
       <c r="G144" s="5">
         <v>348</v>
       </c>
-    </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>9.5948275862068968</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>7</v>
       </c>
@@ -10796,8 +12015,12 @@
       <c r="G145" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>133.14583333333334</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>5</v>
       </c>
@@ -10813,8 +12036,12 @@
       <c r="G146" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.9066666666666663</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>7</v>
       </c>
@@ -10830,8 +12057,12 @@
       <c r="G147" s="5">
         <v>258</v>
       </c>
-    </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>22.003875968992247</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>6</v>
       </c>
@@ -10847,8 +12078,12 @@
       <c r="G148" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>8</v>
       </c>
@@ -10864,8 +12099,12 @@
       <c r="G149" s="5">
         <v>213</v>
       </c>
-    </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.615023474178404</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>5</v>
       </c>
@@ -10881,8 +12120,12 @@
       <c r="G150" s="5">
         <v>357</v>
       </c>
-    </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.549019607843137</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>9</v>
       </c>
@@ -10898,8 +12141,12 @@
       <c r="G151" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1.251207729468599</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>8</v>
       </c>
@@ -10915,8 +12162,12 @@
       <c r="G152" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>41</v>
       </c>
@@ -10932,8 +12183,12 @@
       <c r="G153" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0.48039215686274511</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>7</v>
       </c>
@@ -10949,8 +12204,12 @@
       <c r="G154" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>41</v>
       </c>
@@ -10966,8 +12225,12 @@
       <c r="G155" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>45.097701149425291</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>2</v>
       </c>
@@ -10983,8 +12246,12 @@
       <c r="G156" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>49.383084577114431</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>8</v>
       </c>
@@ -11000,8 +12267,12 @@
       <c r="G157" s="5">
         <v>510</v>
       </c>
-    </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1.6058823529411765</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>6</v>
       </c>
@@ -11017,8 +12288,12 @@
       <c r="G158" s="5">
         <v>378</v>
       </c>
-    </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>8.0740740740740744</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>9</v>
       </c>
@@ -11034,8 +12309,12 @@
       <c r="G159" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>253.03703703703704</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>2</v>
       </c>
@@ -11051,8 +12330,12 @@
       <c r="G160" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.23076923076923</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>6</v>
       </c>
@@ -11068,8 +12351,12 @@
       <c r="G161" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>203.38888888888889</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>8</v>
       </c>
@@ -11085,8 +12372,12 @@
       <c r="G162" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>9</v>
       </c>
@@ -11102,8 +12393,12 @@
       <c r="G163" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>44.333333333333336</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>7</v>
       </c>
@@ -11119,8 +12414,12 @@
       <c r="G164" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>200.83333333333334</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>40</v>
       </c>
@@ -11136,8 +12435,12 @@
       <c r="G165" s="5">
         <v>135</v>
       </c>
-    </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>7</v>
       </c>
@@ -11153,8 +12456,12 @@
       <c r="G166" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>46.888888888888886</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>6</v>
       </c>
@@ -11170,8 +12477,12 @@
       <c r="G167" s="5">
         <v>459</v>
       </c>
-    </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.7472766884531588</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>5</v>
       </c>
@@ -11187,8 +12498,12 @@
       <c r="G168" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>36.218905472636813</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>6</v>
       </c>
@@ -11204,8 +12519,12 @@
       <c r="G169" s="5">
         <v>366</v>
       </c>
-    </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>9.2950819672131146</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>3</v>
       </c>
@@ -11221,8 +12540,12 @@
       <c r="G170" s="5">
         <v>324</v>
       </c>
-    </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>14.17283950617284</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>9</v>
       </c>
@@ -11238,8 +12561,12 @@
       <c r="G171" s="5">
         <v>243</v>
       </c>
-    </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>32.23456790123457</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>2</v>
       </c>
@@ -11255,8 +12582,12 @@
       <c r="G172" s="5">
         <v>213</v>
       </c>
-    </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>35.920187793427232</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>40</v>
       </c>
@@ -11272,8 +12603,12 @@
       <c r="G173" s="5">
         <v>447</v>
       </c>
-    </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>5.089485458612975</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>40</v>
       </c>
@@ -11289,8 +12624,12 @@
       <c r="G174" s="5">
         <v>297</v>
       </c>
-    </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>19.09090909090909</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>7</v>
       </c>
@@ -11306,8 +12645,12 @@
       <c r="G175" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>79.074074074074076</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>40</v>
       </c>
@@ -11323,8 +12666,12 @@
       <c r="G176" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>37.053333333333335</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>10</v>
       </c>
@@ -11340,8 +12687,12 @@
       <c r="G177" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>431.66666666666669</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>7</v>
       </c>
@@ -11357,8 +12708,12 @@
       <c r="G178" s="5">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>14.949152542372881</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>40</v>
       </c>
@@ -11374,8 +12729,12 @@
       <c r="G179" s="5">
         <v>159</v>
       </c>
-    </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>23.861635220125788</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>3</v>
       </c>
@@ -11391,8 +12750,12 @@
       <c r="G180" s="5">
         <v>306</v>
       </c>
-    </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2.6764705882352939</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>3</v>
       </c>
@@ -11408,8 +12771,12 @@
       <c r="G181" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>7</v>
       </c>
@@ -11425,8 +12792,12 @@
       <c r="G182" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>19.104166666666668</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>5</v>
       </c>
@@ -11442,8 +12813,12 @@
       <c r="G183" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.763440860215052</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>10</v>
       </c>
@@ -11459,8 +12834,12 @@
       <c r="G184" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>554.55555555555554</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>8</v>
       </c>
@@ -11476,8 +12855,12 @@
       <c r="G185" s="5">
         <v>219</v>
       </c>
-    </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>9.173515981735159</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>2</v>
       </c>
@@ -11493,8 +12876,12 @@
       <c r="G186" s="5">
         <v>141</v>
       </c>
-    </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>11.120567375886525</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>41</v>
       </c>
@@ -11510,8 +12897,12 @@
       <c r="G187" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>27.54471544715447</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>40</v>
       </c>
@@ -11527,8 +12918,12 @@
       <c r="G188" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.215686274509803</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>6</v>
       </c>
@@ -11544,8 +12939,12 @@
       <c r="G189" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>83.941666666666663</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>8</v>
       </c>
@@ -11561,8 +12960,12 @@
       <c r="G190" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>57.814814814814817</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>9</v>
       </c>
@@ -11578,8 +12981,12 @@
       <c r="G191" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>56.480392156862742</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>6</v>
       </c>
@@ -11595,8 +13002,12 @@
       <c r="G192" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.837398373983739</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>10</v>
       </c>
@@ -11612,8 +13023,12 @@
       <c r="G193" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>113.29629629629629</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>41</v>
       </c>
@@ -11629,8 +13044,12 @@
       <c r="G194" s="5">
         <v>177</v>
       </c>
-    </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>13.129943502824858</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>3</v>
       </c>
@@ -11646,8 +13065,12 @@
       <c r="G195" s="5">
         <v>171</v>
       </c>
-    </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>28.982456140350877</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>10</v>
       </c>
@@ -11663,8 +13086,12 @@
       <c r="G196" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>3</v>
       </c>
@@ -11680,8 +13107,12 @@
       <c r="G197" s="5">
         <v>276</v>
       </c>
-    </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>26.30072463768116</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>8</v>
       </c>
@@ -11697,8 +13128,12 @@
       <c r="G198" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>139.53333333333333</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>40</v>
       </c>
@@ -11714,8 +13149,12 @@
       <c r="G199" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>56.466666666666669</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>6</v>
       </c>
@@ -11731,8 +13170,12 @@
       <c r="G200" s="5">
         <v>177</v>
       </c>
-    </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>21.83050847457627</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>5</v>
       </c>
@@ -11748,8 +13191,12 @@
       <c r="G201" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>97.555555555555557</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>9</v>
       </c>
@@ -11765,8 +13212,12 @@
       <c r="G202" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.936274509803921</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>8</v>
       </c>
@@ -11782,8 +13233,12 @@
       <c r="G203" s="5">
         <v>195</v>
       </c>
-    </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>9.6923076923076916</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>7</v>
       </c>
@@ -11799,8 +13254,12 @@
       <c r="G204" s="5">
         <v>369</v>
       </c>
-    </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>5.2357723577235769</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>3</v>
       </c>
@@ -11816,8 +13275,12 @@
       <c r="G205" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>6</v>
       </c>
@@ -11833,8 +13296,12 @@
       <c r="G206" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.9135802469135799</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>9</v>
       </c>
@@ -11850,8 +13317,12 @@
       <c r="G207" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>11.609756097560975</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>9</v>
       </c>
@@ -11867,8 +13338,12 @@
       <c r="G208" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.0632183908045976</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>8</v>
       </c>
@@ -11884,8 +13359,12 @@
       <c r="G209" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>44.419753086419753</v>
+      </c>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>40</v>
       </c>
@@ -11901,8 +13380,12 @@
       <c r="G210" s="5">
         <v>372</v>
       </c>
-    </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.422043010752688</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>40</v>
       </c>
@@ -11918,8 +13401,12 @@
       <c r="G211" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>27.155172413793103</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>41</v>
       </c>
@@ -11935,8 +13422,12 @@
       <c r="G212" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>122.66666666666667</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>41</v>
       </c>
@@ -11952,8 +13443,12 @@
       <c r="G213" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>5.6622222222222218</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>5</v>
       </c>
@@ -11969,8 +13464,12 @@
       <c r="G214" s="5">
         <v>105</v>
       </c>
-    </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>14.533333333333333</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>40</v>
       </c>
@@ -11986,8 +13485,12 @@
       <c r="G215" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>13.782222222222222</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>2</v>
       </c>
@@ -12003,8 +13506,12 @@
       <c r="G216" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>19.574074074074073</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>7</v>
       </c>
@@ -12020,8 +13527,12 @@
       <c r="G217" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="23" t="e">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>5</v>
       </c>
@@ -12037,8 +13548,12 @@
       <c r="G218" s="5">
         <v>171</v>
       </c>
-    </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>23.497076023391813</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>9</v>
       </c>
@@ -12054,8 +13569,12 @@
       <c r="G219" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.9629629629629628</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>7</v>
       </c>
@@ -12071,8 +13590,12 @@
       <c r="G220" s="5">
         <v>270</v>
       </c>
-    </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.5851851851851855</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>6</v>
       </c>
@@ -12088,8 +13611,12 @@
       <c r="G221" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>41</v>
       </c>
@@ -12105,8 +13632,12 @@
       <c r="G222" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>7</v>
       </c>
@@ -12122,8 +13653,12 @@
       <c r="G223" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>47.512077294685987</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>9</v>
       </c>
@@ -12139,8 +13674,12 @@
       <c r="G224" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>75.760416666666671</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>5</v>
       </c>
@@ -12156,8 +13695,12 @@
       <c r="G225" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>85.296296296296291</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>9</v>
       </c>
@@ -12173,8 +13716,12 @@
       <c r="G226" s="5">
         <v>306</v>
       </c>
-    </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.81045751633987</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>10</v>
       </c>
@@ -12190,8 +13737,12 @@
       <c r="G227" s="5">
         <v>279</v>
       </c>
-    </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.412186379928315</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>2</v>
       </c>
@@ -12207,8 +13758,12 @@
       <c r="G228" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>7</v>
       </c>
@@ -12224,8 +13779,12 @@
       <c r="G229" s="5">
         <v>198</v>
       </c>
-    </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.8787878787878789</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>5</v>
       </c>
@@ -12241,8 +13800,12 @@
       <c r="G230" s="5">
         <v>249</v>
       </c>
-    </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1.5461847389558232</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>6</v>
       </c>
@@ -12258,8 +13821,12 @@
       <c r="G231" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>29.586666666666666</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>9</v>
       </c>
@@ -12275,8 +13842,12 @@
       <c r="G232" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>15.62962962962963</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>7</v>
       </c>
@@ -12292,8 +13863,12 @@
       <c r="G233" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.2183908045977012</v>
+      </c>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>41</v>
       </c>
@@ -12309,8 +13884,12 @@
       <c r="G234" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>35.160919540229884</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>2</v>
       </c>
@@ -12326,8 +13905,12 @@
       <c r="G235" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>133.38888888888889</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>9</v>
       </c>
@@ -12343,8 +13926,12 @@
       <c r="G236" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>3</v>
       </c>
@@ -12360,8 +13947,12 @@
       <c r="G237" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>25.935897435897434</v>
+      </c>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>9</v>
       </c>
@@ -12377,8 +13968,12 @@
       <c r="G238" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>158.78947368421052</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>9</v>
       </c>
@@ -12394,8 +13989,12 @@
       <c r="G239" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>64.86666666666666</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>41</v>
       </c>
@@ -12411,8 +14010,12 @@
       <c r="G240" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1971.6666666666667</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>10</v>
       </c>
@@ -12428,8 +14031,12 @@
       <c r="G241" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>5</v>
       </c>
@@ -12445,8 +14052,12 @@
       <c r="G242" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>419.66666666666669</v>
+      </c>
+    </row>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>5</v>
       </c>
@@ -12462,8 +14073,12 @@
       <c r="G243" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="244" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>8</v>
       </c>
@@ -12479,8 +14094,12 @@
       <c r="G244" s="5">
         <v>288</v>
       </c>
-    </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.177083333333334</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>6</v>
       </c>
@@ -12496,8 +14115,12 @@
       <c r="G245" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>143.96666666666667</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>40</v>
       </c>
@@ -12513,8 +14136,12 @@
       <c r="G246" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>40</v>
       </c>
@@ -12530,8 +14157,12 @@
       <c r="G247" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>212.33333333333334</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>5</v>
       </c>
@@ -12547,8 +14178,12 @@
       <c r="G248" s="5">
         <v>168</v>
       </c>
-    </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>32.583333333333336</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>40</v>
       </c>
@@ -12564,8 +14199,12 @@
       <c r="G249" s="5">
         <v>306</v>
       </c>
-    </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.339869281045752</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>6</v>
       </c>
@@ -12581,8 +14220,12 @@
       <c r="G250" s="5">
         <v>402</v>
       </c>
-    </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.2388059701492535</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>3</v>
       </c>
@@ -12598,8 +14241,12 @@
       <c r="G251" s="5">
         <v>327</v>
       </c>
-    </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>22.348623853211009</v>
+      </c>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>40</v>
       </c>
@@ -12615,8 +14262,12 @@
       <c r="G252" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>65.935483870967744</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>10</v>
       </c>
@@ -12632,8 +14283,12 @@
       <c r="G253" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>36.166666666666664</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>8</v>
       </c>
@@ -12649,8 +14304,12 @@
       <c r="G254" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>357.77777777777777</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>9</v>
       </c>
@@ -12666,8 +14325,12 @@
       <c r="G255" s="5">
         <v>99</v>
       </c>
-    </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>24.606060606060606</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>9</v>
       </c>
@@ -12683,8 +14346,12 @@
       <c r="G256" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>109.26436781609195</v>
+      </c>
+    </row>
+    <row r="257" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>10</v>
       </c>
@@ -12700,8 +14367,12 @@
       <c r="G257" s="5">
         <v>288</v>
       </c>
-    </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>0.85069444444444442</v>
+      </c>
+    </row>
+    <row r="258" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>8</v>
       </c>
@@ -12717,8 +14388,12 @@
       <c r="G258" s="5">
         <v>363</v>
       </c>
-    </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>7.443526170798898</v>
+      </c>
+    </row>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>10</v>
       </c>
@@ -12734,8 +14409,12 @@
       <c r="G259" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>8.0459770114942533</v>
+      </c>
+    </row>
+    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>6</v>
       </c>
@@ -12751,8 +14430,12 @@
       <c r="G260" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>2</v>
       </c>
@@ -12768,8 +14451,12 @@
       <c r="G261" s="5">
         <v>303</v>
       </c>
-    </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>5.2442244224422438</v>
+      </c>
+    </row>
+    <row r="262" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>7</v>
       </c>
@@ -12785,8 +14472,12 @@
       <c r="G262" s="5">
         <v>288</v>
       </c>
-    </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.034722222222221</v>
+      </c>
+    </row>
+    <row r="263" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>10</v>
       </c>
@@ -12802,8 +14493,12 @@
       <c r="G263" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="264" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>40</v>
       </c>
@@ -12819,8 +14514,12 @@
       <c r="G264" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>50.974358974358971</v>
+      </c>
+    </row>
+    <row r="265" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>6</v>
       </c>
@@ -12836,8 +14535,12 @@
       <c r="G265" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>54.747967479674799</v>
+      </c>
+    </row>
+    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>40</v>
       </c>
@@ -12853,8 +14556,12 @@
       <c r="G266" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.0277777777777777</v>
+      </c>
+    </row>
+    <row r="267" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>5</v>
       </c>
@@ -12870,8 +14577,12 @@
       <c r="G267" s="5">
         <v>237</v>
       </c>
-    </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>26.49367088607595</v>
+      </c>
+    </row>
+    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>40</v>
       </c>
@@ -12887,8 +14598,12 @@
       <c r="G268" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>22.009950248756219</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>2</v>
       </c>
@@ -12904,8 +14619,12 @@
       <c r="G269" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>5</v>
       </c>
@@ -12921,8 +14640,12 @@
       <c r="G270" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>8</v>
       </c>
@@ -12938,8 +14661,12 @@
       <c r="G271" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>4.9885057471264371</v>
+      </c>
+    </row>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>7</v>
       </c>
@@ -12955,8 +14682,12 @@
       <c r="G272" s="5">
         <v>312</v>
       </c>
-    </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>32.464743589743591</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>3</v>
       </c>
@@ -12972,8 +14703,12 @@
       <c r="G273" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>16.196078431372548</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>8</v>
       </c>
@@ -12989,8 +14724,12 @@
       <c r="G274" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>82.474358974358978</v>
+      </c>
+    </row>
+    <row r="275" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>3</v>
       </c>
@@ -13006,8 +14745,12 @@
       <c r="G275" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.905982905982906</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>41</v>
       </c>
@@ -13023,8 +14766,12 @@
       <c r="G276" s="5">
         <v>99</v>
       </c>
-    </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>6.1515151515151514</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>40</v>
       </c>
@@ -13040,8 +14787,12 @@
       <c r="G277" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>34.125</v>
+      </c>
+    </row>
+    <row r="278" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>7</v>
       </c>
@@ -13057,8 +14808,12 @@
       <c r="G278" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>159.54166666666666</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>40</v>
       </c>
@@ -13074,8 +14829,12 @@
       <c r="G279" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>6</v>
       </c>
@@ -13091,8 +14850,12 @@
       <c r="G280" s="5">
         <v>270</v>
       </c>
-    </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.9666666666666668</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>8</v>
       </c>
@@ -13108,8 +14871,12 @@
       <c r="G281" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>33.46</v>
+      </c>
+    </row>
+    <row r="282" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>2</v>
       </c>
@@ -13125,8 +14892,12 @@
       <c r="G282" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>68.166666666666671</v>
+      </c>
+    </row>
+    <row r="283" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>40</v>
       </c>
@@ -13142,8 +14913,12 @@
       <c r="G283" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="284" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>6</v>
       </c>
@@ -13159,8 +14934,12 @@
       <c r="G284" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>1136.3333333333333</v>
+      </c>
+    </row>
+    <row r="285" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>3</v>
       </c>
@@ -13176,8 +14955,12 @@
       <c r="G285" s="5">
         <v>276</v>
       </c>
-    </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>24.119565217391305</v>
+      </c>
+    </row>
+    <row r="286" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>3</v>
       </c>
@@ -13193,8 +14976,12 @@
       <c r="G286" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>31.387096774193548</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>2</v>
       </c>
@@ -13210,8 +14997,12 @@
       <c r="G287" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.577235772357724</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>6</v>
       </c>
@@ -13227,8 +15018,12 @@
       <c r="G288" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>996.33333333333337</v>
+      </c>
+    </row>
+    <row r="289" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>8</v>
       </c>
@@ -13244,8 +15039,12 @@
       <c r="G289" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>5</v>
       </c>
@@ -13261,8 +15060,12 @@
       <c r="G290" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>19.321138211382113</v>
+      </c>
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>2</v>
       </c>
@@ -13278,8 +15081,12 @@
       <c r="G291" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>62.591666666666669</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>2</v>
       </c>
@@ -13295,8 +15102,12 @@
       <c r="G292" s="5">
         <v>348</v>
       </c>
-    </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>12.431034482758621</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>41</v>
       </c>
@@ -13312,8 +15123,12 @@
       <c r="G293" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>39.166666666666664</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>6</v>
       </c>
@@ -13329,8 +15144,12 @@
       <c r="G294" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>38.869918699186989</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>5</v>
       </c>
@@ -13346,8 +15165,12 @@
       <c r="G295" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>166.28888888888889</v>
+      </c>
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>10</v>
       </c>
@@ -13363,8 +15186,12 @@
       <c r="G296" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>54.444444444444443</v>
+      </c>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>40</v>
       </c>
@@ -13380,8 +15207,12 @@
       <c r="G297" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>125.02777777777777</v>
+      </c>
+    </row>
+    <row r="298" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>6</v>
       </c>
@@ -13397,8 +15228,12 @@
       <c r="G298" s="5">
         <v>135</v>
       </c>
-    </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>10.37037037037037</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>10</v>
       </c>
@@ -13414,8 +15249,12 @@
       <c r="G299" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>168.875</v>
+      </c>
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>7</v>
       </c>
@@ -13431,8 +15270,12 @@
       <c r="G300" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.367521367521366</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>3</v>
       </c>
@@ -13448,8 +15291,12 @@
       <c r="G301" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>71.372549019607845</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>2</v>
       </c>
@@ -13465,8 +15312,12 @@
       <c r="G302" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="303" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>9</v>
       </c>
@@ -13482,8 +15333,12 @@
       <c r="G303" s="5">
         <v>144</v>
       </c>
-    </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>16.868055555555557</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>9</v>
       </c>
@@ -13499,8 +15354,12 @@
       <c r="G304" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>18.789473684210527</v>
+      </c>
+    </row>
+    <row r="305" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>7</v>
       </c>
@@ -13516,8 +15375,12 @@
       <c r="G305" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>119.51851851851852</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>7</v>
       </c>
@@ -13533,8 +15396,12 @@
       <c r="G306" s="5">
         <v>333</v>
       </c>
-    </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>13.474474474474475</v>
+      </c>
+    </row>
+    <row r="307" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>3</v>
       </c>
@@ -13550,8 +15417,12 @@
       <c r="G307" s="5">
         <v>366</v>
       </c>
-    </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>2.5628415300546448</v>
+      </c>
+    </row>
+    <row r="308" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>3</v>
       </c>
@@ -13567,8 +15438,12 @@
       <c r="G308" s="5">
         <v>303</v>
       </c>
-    </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>29.178217821782177</v>
+      </c>
+    </row>
+    <row r="309" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>2</v>
       </c>
@@ -13584,8 +15459,12 @@
       <c r="G309" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>31.888888888888889</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>41</v>
       </c>
@@ -13601,8 +15480,12 @@
       <c r="G310" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>3.0909090909090908</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>9</v>
       </c>
@@ -13618,40 +15501,44 @@
       <c r="G311" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="23">
+        <f>Table2[[#This Row],[Amount]]/Table2[[#This Row],[Units]]</f>
+        <v>37.745098039215684</v>
+      </c>
+    </row>
+    <row r="312" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F312" s="4"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F313" s="4"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F314" s="4"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F315" s="4"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F316" s="4"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F317" s="4"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F318" s="4"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F319" s="4"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F320" s="4"/>
       <c r="G320" s="5"/>
     </row>
@@ -20277,7 +22164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -20594,7 +22481,7 @@
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20616,13 +22503,13 @@
       <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="24">
         <v>6069</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="24">
         <v>6069</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="24">
         <v>24</v>
       </c>
     </row>
@@ -20630,13 +22517,13 @@
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="24">
         <v>39242</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="24">
         <v>39242</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="24">
         <v>1482</v>
       </c>
     </row>
@@ -20644,13 +22531,13 @@
       <c r="B6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="24">
         <v>15855</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="24">
         <v>15855</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="24">
         <v>708</v>
       </c>
     </row>
@@ -20658,13 +22545,13 @@
       <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="24">
         <v>17283</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="24">
         <v>17283</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="24">
         <v>882</v>
       </c>
     </row>
@@ -20672,13 +22559,13 @@
       <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="24">
         <v>3976</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="24">
         <v>3976</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="24">
         <v>72</v>
       </c>
     </row>
@@ -20686,13 +22573,13 @@
       <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="24">
         <v>15785</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="24">
         <v>15785</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="24">
         <v>699</v>
       </c>
     </row>
@@ -20700,13 +22587,13 @@
       <c r="B10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="24">
         <v>98210</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="24">
         <v>98210</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="24">
         <v>3867</v>
       </c>
     </row>
@@ -26146,16 +28033,16 @@
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="21"/>
@@ -26178,13 +28065,13 @@
       <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="24">
         <v>252469</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="24">
         <v>252469</v>
       </c>
     </row>
@@ -26192,13 +28079,13 @@
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="24">
         <v>41559</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="24">
         <v>41559</v>
       </c>
     </row>
@@ -26206,13 +28093,13 @@
       <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="24">
         <v>39424</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="24">
         <v>39424</v>
       </c>
     </row>
@@ -26220,13 +28107,13 @@
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="24">
         <v>35847</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="24">
         <v>35847</v>
       </c>
     </row>
@@ -26234,13 +28121,13 @@
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="24">
         <v>33670</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="24">
         <v>33670</v>
       </c>
     </row>
@@ -26248,13 +28135,13 @@
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="24">
         <v>31661</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="24">
         <v>31661</v>
       </c>
     </row>
@@ -26262,13 +28149,13 @@
       <c r="B10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="24">
         <v>24647</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="24">
         <v>24647</v>
       </c>
     </row>
@@ -26276,13 +28163,13 @@
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="24">
         <v>16527</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="24">
         <v>16527</v>
       </c>
     </row>
@@ -26290,13 +28177,13 @@
       <c r="B12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="24">
         <v>15855</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="24">
         <v>15855</v>
       </c>
     </row>
@@ -26304,13 +28191,13 @@
       <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="24">
         <v>7763</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="24">
         <v>7763</v>
       </c>
     </row>
@@ -26318,13 +28205,13 @@
       <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="24">
         <v>5516</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="24">
         <v>5516</v>
       </c>
     </row>
@@ -26332,13 +28219,13 @@
       <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="24">
         <v>237944</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="24">
         <v>237944</v>
       </c>
     </row>
@@ -26346,13 +28233,13 @@
       <c r="B16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="24">
         <v>39620</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="24">
         <v>39620</v>
       </c>
     </row>
@@ -26360,13 +28247,13 @@
       <c r="B17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="24">
         <v>39242</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="24">
         <v>39242</v>
       </c>
     </row>
@@ -26374,13 +28261,13 @@
       <c r="B18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="24">
         <v>27377</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="24">
         <v>27377</v>
       </c>
     </row>
@@ -26388,13 +28275,13 @@
       <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="24">
         <v>25669</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="24">
         <v>25669</v>
       </c>
     </row>
@@ -26402,13 +28289,13 @@
       <c r="B20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="24">
         <v>23709</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="24">
         <v>23709</v>
       </c>
     </row>
@@ -26416,13 +28303,13 @@
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="24">
         <v>23016</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="24">
         <v>23016</v>
       </c>
     </row>
@@ -26430,13 +28317,13 @@
       <c r="B22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="24">
         <v>21931</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="24">
         <v>21931</v>
       </c>
     </row>
@@ -26444,13 +28331,13 @@
       <c r="B23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="24">
         <v>18564</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="24">
         <v>18564</v>
       </c>
     </row>
@@ -26458,13 +28345,13 @@
       <c r="B24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="24">
         <v>13797</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="24">
         <v>13797</v>
       </c>
     </row>
@@ -26472,13 +28359,13 @@
       <c r="B25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="24">
         <v>5019</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="24">
         <v>5019</v>
       </c>
     </row>
@@ -26486,13 +28373,13 @@
       <c r="B26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="24">
         <v>218813</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="24">
         <v>218813</v>
       </c>
     </row>
@@ -26500,13 +28387,13 @@
       <c r="B27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="24">
         <v>43568</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="24">
         <v>43568</v>
       </c>
     </row>
@@ -26514,13 +28401,13 @@
       <c r="B28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="24">
         <v>26985</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="24">
         <v>26985</v>
       </c>
     </row>
@@ -26528,13 +28415,13 @@
       <c r="B29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="24">
         <v>25655</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="24">
         <v>25655</v>
       </c>
     </row>
@@ -26542,13 +28429,13 @@
       <c r="B30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="24">
         <v>24451</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="24">
         <v>24451</v>
       </c>
     </row>
@@ -26556,13 +28443,13 @@
       <c r="B31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="24">
         <v>21434</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="24">
         <v>21434</v>
       </c>
     </row>
@@ -26570,13 +28457,13 @@
       <c r="B32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="24">
         <v>20125</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="24">
         <v>20125</v>
       </c>
     </row>
@@ -26584,13 +28471,13 @@
       <c r="B33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="24">
         <v>17283</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="24">
         <v>17283</v>
       </c>
     </row>
@@ -26598,13 +28485,13 @@
       <c r="B34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="24">
         <v>16821</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="24">
         <v>16821</v>
       </c>
     </row>
@@ -26612,13 +28499,13 @@
       <c r="B35" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="24">
         <v>14504</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="24">
         <v>14504</v>
       </c>
     </row>
@@ -26626,13 +28513,13 @@
       <c r="B36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="24">
         <v>7987</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="24">
         <v>7987</v>
       </c>
     </row>
@@ -26640,13 +28527,13 @@
       <c r="B37" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="24">
         <v>189434</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="24">
         <v>189434</v>
       </c>
     </row>
@@ -26654,13 +28541,13 @@
       <c r="B38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="24">
         <v>38325</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="24">
         <v>38325</v>
       </c>
     </row>
@@ -26668,13 +28555,13 @@
       <c r="B39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="24">
         <v>28546</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="24">
         <v>28546</v>
       </c>
     </row>
@@ -26682,13 +28569,13 @@
       <c r="B40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="24">
         <v>28273</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="24">
         <v>28273</v>
       </c>
     </row>
@@ -26696,13 +28583,13 @@
       <c r="B41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="24">
         <v>25151</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="24">
         <v>25151</v>
       </c>
     </row>
@@ -26710,13 +28597,13 @@
       <c r="B42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="24">
         <v>16492</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="24">
         <v>16492</v>
       </c>
     </row>
@@ -26724,13 +28611,13 @@
       <c r="B43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="24">
         <v>15785</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="24">
         <v>15785</v>
       </c>
     </row>
@@ -26738,13 +28625,13 @@
       <c r="B44" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="24">
         <v>12383</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="24">
         <v>12383</v>
       </c>
     </row>
@@ -26752,13 +28639,13 @@
       <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="24">
         <v>11319</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="24">
         <v>11319</v>
       </c>
     </row>
@@ -26766,13 +28653,13 @@
       <c r="B46" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="24">
         <v>11018</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="24">
         <v>11018</v>
       </c>
     </row>
@@ -26780,13 +28667,13 @@
       <c r="B47" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="24">
         <v>2142</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="24">
         <v>2142</v>
       </c>
     </row>
@@ -26794,13 +28681,13 @@
       <c r="B48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="24">
         <v>173530</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="24">
         <v>173530</v>
       </c>
     </row>
@@ -26808,13 +28695,13 @@
       <c r="B49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="24">
         <v>45752</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="24">
         <v>45752</v>
       </c>
     </row>
@@ -26822,13 +28709,13 @@
       <c r="B50" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="24">
         <v>27132</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="24">
         <v>27132</v>
       </c>
     </row>
@@ -26836,13 +28723,13 @@
       <c r="B51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="24">
         <v>21063</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="24">
         <v>21063</v>
       </c>
     </row>
@@ -26850,13 +28737,13 @@
       <c r="B52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="24">
         <v>17808</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="24">
         <v>17808</v>
       </c>
     </row>
@@ -26864,13 +28751,13 @@
       <c r="B53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="24">
         <v>16548</v>
       </c>
       <c r="I53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="24">
         <v>16548</v>
       </c>
     </row>
@@ -26878,13 +28765,13 @@
       <c r="B54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="24">
         <v>15827</v>
       </c>
       <c r="I54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="24">
         <v>15827</v>
       </c>
     </row>
@@ -26892,13 +28779,13 @@
       <c r="B55" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="24">
         <v>10269</v>
       </c>
       <c r="I55" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="24">
         <v>10269</v>
       </c>
     </row>
@@ -26906,13 +28793,13 @@
       <c r="B56" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="24">
         <v>9751</v>
       </c>
       <c r="I56" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="24">
         <v>9751</v>
       </c>
     </row>
@@ -26920,13 +28807,13 @@
       <c r="B57" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="24">
         <v>5404</v>
       </c>
       <c r="I57" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="24">
         <v>5404</v>
       </c>
     </row>
@@ -26934,13 +28821,13 @@
       <c r="B58" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="24">
         <v>3976</v>
       </c>
       <c r="I58" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="24">
         <v>3976</v>
       </c>
     </row>
@@ -26948,13 +28835,13 @@
       <c r="B59" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="24">
         <v>168679</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="24">
         <v>168679</v>
       </c>
     </row>
@@ -26962,13 +28849,13 @@
       <c r="B60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="24">
         <v>25221</v>
       </c>
       <c r="I60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="24">
         <v>25221</v>
       </c>
     </row>
@@ -26976,13 +28863,13 @@
       <c r="B61" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="24">
         <v>24983</v>
       </c>
       <c r="I61" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="24">
         <v>24983</v>
       </c>
     </row>
@@ -26990,13 +28877,13 @@
       <c r="B62" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="24">
         <v>20097</v>
       </c>
       <c r="I62" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="24">
         <v>20097</v>
       </c>
     </row>
@@ -27004,13 +28891,13 @@
       <c r="B63" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="24">
         <v>18928</v>
       </c>
       <c r="I63" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="24">
         <v>18928</v>
       </c>
     </row>
@@ -27018,13 +28905,13 @@
       <c r="B64" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="24">
         <v>18865</v>
       </c>
       <c r="I64" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="24">
         <v>18865</v>
       </c>
     </row>
@@ -27032,13 +28919,13 @@
       <c r="B65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="24">
         <v>15820</v>
       </c>
       <c r="I65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="24">
         <v>15820</v>
       </c>
     </row>
@@ -27046,13 +28933,13 @@
       <c r="B66" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="24">
         <v>15141</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="24">
         <v>15141</v>
       </c>
     </row>
@@ -27060,13 +28947,13 @@
       <c r="B67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="24">
         <v>14714</v>
       </c>
       <c r="I67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="24">
         <v>14714</v>
       </c>
     </row>
@@ -27074,13 +28961,13 @@
       <c r="B68" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="24">
         <v>8841</v>
       </c>
       <c r="I68" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="24">
         <v>8841</v>
       </c>
     </row>
@@ -27088,13 +28975,13 @@
       <c r="B69" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="24">
         <v>6069</v>
       </c>
       <c r="I69" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="24">
         <v>6069</v>
       </c>
     </row>
@@ -27102,13 +28989,13 @@
       <c r="B70" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="24">
         <v>1240869</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="24">
         <v>1240869</v>
       </c>
     </row>
@@ -27123,13 +29010,266 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F5E0B-2E66-4916-8E57-63D4C897DA68}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6E24C6-4CDC-43F8-AFC6-D48F57C89CF9}">
+  <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S1" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S4" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS(Table2[Geography],C3)</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G10,Table2[Geography],$C$3)</f>
+        <v>21063</v>
+      </c>
+      <c r="I10">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H10,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="30">
+        <f>SUMIFS(Table2[Amount],Table2[Geography],$C$3)</f>
+        <v>173530</v>
+      </c>
+      <c r="D11" s="30">
+        <f>AVERAGEIFS(Table2[Amount],Table2[Geography],$C$3)</f>
+        <v>4338.25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G11,Table2[Geography],$C$3)</f>
+        <v>27132</v>
+      </c>
+      <c r="I11">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H11,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="30">
+        <f>SUMIFS(Table2[Units],Table2[Geography],$C$3)</f>
+        <v>5745</v>
+      </c>
+      <c r="D12" s="30">
+        <f>AVERAGEIFS(Table2[Units],Table2[Geography],$C$3)</f>
+        <v>143.625</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G12,Table2[Geography],$C$3)</f>
+        <v>9751</v>
+      </c>
+      <c r="I12">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H12,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30">
+        <f>SUMIFS(Table2[cost per unit],Table2[Geography],$C$3)</f>
+        <v>3978.6220322152108</v>
+      </c>
+      <c r="D13" s="30">
+        <f>AVERAGEIFS(Table2[cost per unit],Table2[Geography],$C$3)</f>
+        <v>99.465550805380275</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G13,Table2[Geography],$C$3)</f>
+        <v>3976</v>
+      </c>
+      <c r="I13">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H13,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G14,Table2[Geography],$C$3)</f>
+        <v>15827</v>
+      </c>
+      <c r="I14">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H14,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G15,Table2[Geography],$C$3)</f>
+        <v>5404</v>
+      </c>
+      <c r="I15">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H15,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G16,Table2[Geography],$C$3)</f>
+        <v>16548</v>
+      </c>
+      <c r="I16">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H16,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G17,Table2[Geography],$C$3)</f>
+        <v>45752</v>
+      </c>
+      <c r="I17">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H17,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G18,Table2[Geography],$C$3)</f>
+        <v>10269</v>
+      </c>
+      <c r="I18">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H18,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <f>SUMIFS(Table2[Amount],Table2[Sales Person],G19,Table2[Geography],$C$3)</f>
+        <v>17808</v>
+      </c>
+      <c r="I19">
+        <f>SUMIFS(Table2[Units],Table2[Sales Person],H19,Table2[Geography],$C$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G8:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{249E0FD6-B596-46D9-B9E1-9703926C38E8}">
+      <formula1>$S$2:$S$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>